--- a/directory_app/WLAX_LETTERWINNER_DATA_complete.xlsx
+++ b/directory_app/WLAX_LETTERWINNER_DATA_complete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD19184-48ED-4145-A2DC-FEF9F9AB7DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D0810E-8CE0-6549-A433-4BF054005704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="460" windowWidth="24780" windowHeight="16120" xr2:uid="{EA26E0FC-545C-F54D-9B10-F7662692507E}"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="25280" windowHeight="16020" xr2:uid="{EA26E0FC-545C-F54D-9B10-F7662692507E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1822">
   <si>
     <t>Name</t>
   </si>
@@ -5490,6 +5490,15 @@
   </si>
   <si>
     <t>Canning</t>
+  </si>
+  <si>
+    <t>NBC Universal Media, LLC</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
+  </si>
+  <si>
+    <t>Sales, Media</t>
   </si>
 </sst>
 </file>
@@ -5913,9 +5922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520AADE-8F57-7342-A682-D1D49773B414}">
   <dimension ref="A1:Z364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U132" sqref="U132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12092,6 +12101,15 @@
       <c r="N132" t="s">
         <v>267</v>
       </c>
+      <c r="Q132" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R132" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>1821</v>
+      </c>
       <c r="V132" t="s">
         <v>152</v>
       </c>
@@ -12710,7 +12728,7 @@
     </row>
     <row r="147" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(B147, " ", D147)</f>
         <v>Liv Gundrum</v>
       </c>
       <c r="B147" s="2" t="s">

--- a/directory_app/WLAX_LETTERWINNER_DATA_complete.xlsx
+++ b/directory_app/WLAX_LETTERWINNER_DATA_complete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB843FF-B690-E04D-85A0-0861E1F0D4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C34FEF8F-E38F-F848-B3FE-E7E022C6D690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="460" windowWidth="26080" windowHeight="16020" xr2:uid="{EA26E0FC-545C-F54D-9B10-F7662692507E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="1842">
   <si>
     <t>Name</t>
   </si>
@@ -4160,9 +4160,6 @@
     <t>Cascadia Capital</t>
   </si>
   <si>
-    <t>Investment Banking Analayst</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/maevemcmahon/</t>
   </si>
   <si>
@@ -5550,6 +5547,18 @@
   </si>
   <si>
     <t>Berwyn, PA</t>
+  </si>
+  <si>
+    <t>McCarthy</t>
+  </si>
+  <si>
+    <t>Phorzheimer</t>
+  </si>
+  <si>
+    <t>Economcis</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maggie-mccarthy-755a58190</t>
   </si>
 </sst>
 </file>
@@ -5650,7 +5659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5664,6 +5673,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5978,11 +5988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520AADE-8F57-7342-A682-D1D49773B414}">
-  <dimension ref="A1:Z364"/>
+  <dimension ref="A1:Z365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+      <selection pane="topRight" activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6039,7 +6049,7 @@
         <v>790</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>538</v>
@@ -6066,10 +6076,10 @@
         <v>2</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>1802</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1803</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>3</v>
@@ -6078,12 +6088,12 @@
         <v>143</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
-        <f>CONCATENATE(B2, " ", D2)</f>
+        <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2, " ", D2)</f>
         <v>Martha Abbruzzese</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6093,7 +6103,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E2" s="2">
         <v>1991</v>
@@ -6136,7 +6146,7 @@
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
-        <f>CONCATENATE(B3, " ", D3)</f>
+        <f t="shared" si="0"/>
         <v>Anne Adams</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6163,7 +6173,7 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
-        <f>CONCATENATE(B4, " ", D4)</f>
+        <f t="shared" si="0"/>
         <v>Kristin Agatone</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6205,7 +6215,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
-        <f>CONCATENATE(B5, " ", D5)</f>
+        <f t="shared" si="0"/>
         <v>Christine Ament</v>
       </c>
       <c r="B5" t="s">
@@ -6215,7 +6225,7 @@
         <v>552</v>
       </c>
       <c r="D5" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E5">
         <v>1997</v>
@@ -6233,10 +6243,10 @@
         <v>153</v>
       </c>
       <c r="Q5" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="R5" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>1262</v>
@@ -6244,15 +6254,15 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="W5" t="s">
         <v>1610</v>
-      </c>
-      <c r="W5" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
-        <f>CONCATENATE(B6, " ", D6)</f>
+        <f t="shared" si="0"/>
         <v>Abby Doolittle Ames</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6297,7 +6307,7 @@
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
-        <f>CONCATENATE(B7, " ", D7)</f>
+        <f t="shared" si="0"/>
         <v>Caroline Ashford</v>
       </c>
       <c r="B7" t="s">
@@ -6352,7 +6362,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
-        <f>CONCATENATE(B8, " ", D8)</f>
+        <f t="shared" si="0"/>
         <v>Brooke Asnis</v>
       </c>
       <c r="B8" t="s">
@@ -6397,7 +6407,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
-        <f>CONCATENATE(B9, " ", D9)</f>
+        <f t="shared" si="0"/>
         <v>Kelly Atkins</v>
       </c>
       <c r="B9" t="s">
@@ -6444,7 +6454,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
-        <f>CONCATENATE(B10, " ", D10)</f>
+        <f t="shared" si="0"/>
         <v>Anne Auer</v>
       </c>
       <c r="B10" t="s">
@@ -6489,7 +6499,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
-        <f>CONCATENATE(B11, " ", D11)</f>
+        <f t="shared" si="0"/>
         <v>Maureen Austin</v>
       </c>
       <c r="B11" t="s">
@@ -6534,7 +6544,7 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
-        <f>CONCATENATE(B12, " ", D12)</f>
+        <f t="shared" si="0"/>
         <v>Nicole Baiocco</v>
       </c>
       <c r="B12" t="s">
@@ -6589,7 +6599,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
-        <f>CONCATENATE(B13, " ", D13)</f>
+        <f t="shared" si="0"/>
         <v>Kaitlin Bancroft</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -6646,7 +6656,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
-        <f>CONCATENATE(B14, " ", D14)</f>
+        <f t="shared" si="0"/>
         <v>Claudia Barcomb</v>
       </c>
       <c r="B14" t="s">
@@ -6656,7 +6666,7 @@
         <v>796</v>
       </c>
       <c r="D14" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E14">
         <v>1999</v>
@@ -6691,7 +6701,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
-        <f>CONCATENATE(B15, " ", D15)</f>
+        <f t="shared" si="0"/>
         <v>Shana Barghouti</v>
       </c>
       <c r="B15" t="s">
@@ -6733,7 +6743,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
-        <f>CONCATENATE(B16, " ", D16)</f>
+        <f t="shared" si="0"/>
         <v>Melanie Baskind</v>
       </c>
       <c r="B16" t="s">
@@ -6781,17 +6791,17 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
-        <f>CONCATENATE(B17, " ", D17)</f>
+        <f t="shared" si="0"/>
         <v>Elena Bassett</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E17" s="6">
         <v>2007</v>
@@ -6813,13 +6823,13 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>1822</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="R17" s="6" t="s">
         <v>1823</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>1824</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>1262</v>
@@ -6830,7 +6840,7 @@
         <v>188</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -6838,7 +6848,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
-        <f>CONCATENATE(B18, " ", D18)</f>
+        <f t="shared" si="0"/>
         <v>Meghan Bauer</v>
       </c>
       <c r="B18" t="s">
@@ -6880,7 +6890,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
-        <f>CONCATENATE(B19, " ", D19)</f>
+        <f t="shared" si="0"/>
         <v>Stefi Baum</v>
       </c>
       <c r="B19" t="s">
@@ -6925,7 +6935,7 @@
     </row>
     <row r="20" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
-        <f>CONCATENATE(B20, " ", D20)</f>
+        <f t="shared" si="0"/>
         <v>Caroline Bell</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6935,7 +6945,7 @@
         <v>461</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E20" s="2">
         <v>1977</v>
@@ -6972,7 +6982,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
-        <f>CONCATENATE(B21, " ", D21)</f>
+        <f t="shared" si="0"/>
         <v>Laura Belmont</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -7029,7 +7039,7 @@
     </row>
     <row r="22" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
-        <f>CONCATENATE(B22, " ", D22)</f>
+        <f t="shared" si="0"/>
         <v>Christine Bent</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7059,7 +7069,7 @@
     </row>
     <row r="23" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
-        <f>CONCATENATE(B23, " ", D23)</f>
+        <f t="shared" si="0"/>
         <v>Lauren Benton</v>
       </c>
       <c r="B23" t="s">
@@ -7116,7 +7126,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="str">
-        <f>CONCATENATE(B24, " ", D24)</f>
+        <f t="shared" si="0"/>
         <v>Rory Blair</v>
       </c>
       <c r="B24" t="s">
@@ -7158,7 +7168,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
-        <f>CONCATENATE(B25, " ", D25)</f>
+        <f t="shared" si="0"/>
         <v>Whitney Blake</v>
       </c>
       <c r="B25" t="s">
@@ -7200,7 +7210,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
-        <f>CONCATENATE(B26, " ", D26)</f>
+        <f t="shared" si="0"/>
         <v>Lauren Bobzin</v>
       </c>
       <c r="B26" t="s">
@@ -7242,7 +7252,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="str">
-        <f>CONCATENATE(B27, " ", D27)</f>
+        <f t="shared" si="0"/>
         <v>Nancy Boutilier</v>
       </c>
       <c r="B27" t="s">
@@ -7276,7 +7286,7 @@
         <v>162</v>
       </c>
       <c r="V27" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="W27" t="s">
         <v>206</v>
@@ -7284,7 +7294,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
-        <f>CONCATENATE(B28, " ", D28)</f>
+        <f t="shared" si="0"/>
         <v>Chelsey Bowman</v>
       </c>
       <c r="B28" t="s">
@@ -7329,7 +7339,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
-        <f>CONCATENATE(B29, " ", D29)</f>
+        <f t="shared" si="0"/>
         <v>Petrina Branch</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -7384,7 +7394,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
-        <f>CONCATENATE(B30, " ", D30)</f>
+        <f t="shared" si="0"/>
         <v>Kerry Brokaw</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -7431,7 +7441,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="str">
-        <f>CONCATENATE(B31, " ", D31)</f>
+        <f t="shared" si="0"/>
         <v>Jennifer Brooks</v>
       </c>
       <c r="B31" t="s">
@@ -7476,7 +7486,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="str">
-        <f>CONCATENATE(B32, " ", D32)</f>
+        <f t="shared" si="0"/>
         <v>Catherine Brown</v>
       </c>
       <c r="B32" t="s">
@@ -7524,7 +7534,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="str">
-        <f>CONCATENATE(B33, " ", D33)</f>
+        <f t="shared" si="0"/>
         <v>Meredith Brown</v>
       </c>
       <c r="B33" t="s">
@@ -7569,7 +7579,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="str">
-        <f>CONCATENATE(B34, " ", D34)</f>
+        <f t="shared" si="0"/>
         <v>Rebecca Brown</v>
       </c>
       <c r="B34" t="s">
@@ -7614,7 +7624,7 @@
     </row>
     <row r="35" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="str">
-        <f>CONCATENATE(B35, " ", D35)</f>
+        <f t="shared" si="0"/>
         <v>Carolyn Bruckmann</v>
       </c>
       <c r="B35" t="s">
@@ -7669,14 +7679,14 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
-        <f>CONCATENATE(B36, " ", D36)</f>
+        <f t="shared" si="0"/>
         <v>Alexa Buckley</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D36" t="s">
         <v>72</v>
@@ -7711,7 +7721,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="str">
-        <f>CONCATENATE(B37, " ", D37)</f>
+        <f t="shared" si="0"/>
         <v>Sara Burg</v>
       </c>
       <c r="B37" t="s">
@@ -7756,7 +7766,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
-        <f>CONCATENATE(B38, " ", D38)</f>
+        <f t="shared" si="0"/>
         <v>Rachel Burk</v>
       </c>
       <c r="B38" t="s">
@@ -7806,7 +7816,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="str">
-        <f>CONCATENATE(B39, " ", D39)</f>
+        <f t="shared" si="0"/>
         <v>Colleen Burke</v>
       </c>
       <c r="B39" t="s">
@@ -7850,7 +7860,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="str">
-        <f>CONCATENATE(B40, " ", D40)</f>
+        <f t="shared" si="0"/>
         <v>Marina Burke</v>
       </c>
       <c r="B40" t="s">
@@ -7894,7 +7904,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="str">
-        <f>CONCATENATE(B41, " ", D41)</f>
+        <f t="shared" si="0"/>
         <v>Kristin Burnetta</v>
       </c>
       <c r="B41" t="s">
@@ -7941,7 +7951,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="str">
-        <f>CONCATENATE(B42, " ", D42)</f>
+        <f t="shared" si="0"/>
         <v>Sara Cable</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -7996,7 +8006,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="str">
-        <f>CONCATENATE(B43, " ", D43)</f>
+        <f t="shared" si="0"/>
         <v>Caitlin Cahow</v>
       </c>
       <c r="B43" t="s">
@@ -8041,7 +8051,7 @@
     </row>
     <row r="44" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="str">
-        <f>CONCATENATE(B44, " ", D44)</f>
+        <f t="shared" si="0"/>
         <v>Sara Cami</v>
       </c>
       <c r="B44" t="s">
@@ -8074,7 +8084,7 @@
       <c r="O44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -8089,7 +8099,7 @@
     </row>
     <row r="45" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="str">
-        <f>CONCATENATE(B45, " ", D45)</f>
+        <f t="shared" si="0"/>
         <v>Becky Campbell</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -8116,7 +8126,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="str">
-        <f>CONCATENATE(B46, " ", D46)</f>
+        <f t="shared" si="0"/>
         <v>Elizabeth Canning</v>
       </c>
       <c r="B46" t="s">
@@ -8126,7 +8136,7 @@
         <v>347</v>
       </c>
       <c r="D46" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E46">
         <v>1992</v>
@@ -8161,7 +8171,7 @@
     </row>
     <row r="47" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="str">
-        <f>CONCATENATE(B47, " ", D47)</f>
+        <f t="shared" si="0"/>
         <v>Mary Cannon</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -8191,7 +8201,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="str">
-        <f>CONCATENATE(B48, " ", D48)</f>
+        <f t="shared" si="0"/>
         <v>Amelia Capone</v>
       </c>
       <c r="B48" t="s">
@@ -8225,7 +8235,7 @@
         <v>670</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
@@ -8238,7 +8248,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="str">
-        <f>CONCATENATE(B49, " ", D49)</f>
+        <f t="shared" si="0"/>
         <v>Sophia Capone</v>
       </c>
       <c r="B49" t="s">
@@ -8283,7 +8293,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="str">
-        <f>CONCATENATE(B50, " ", D50)</f>
+        <f t="shared" si="0"/>
         <v>Livia Carega</v>
       </c>
       <c r="B50" t="s">
@@ -8328,7 +8338,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="str">
-        <f>CONCATENATE(B51, " ", D51)</f>
+        <f t="shared" si="0"/>
         <v>Stephanie Carr</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -8373,7 +8383,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="str">
-        <f>CONCATENATE(B52, " ", D52)</f>
+        <f t="shared" si="0"/>
         <v>Alicia Carrillo</v>
       </c>
       <c r="B52" t="s">
@@ -8410,7 +8420,7 @@
         <v>162</v>
       </c>
       <c r="V52" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="W52" t="s">
         <v>690</v>
@@ -8418,7 +8428,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="str">
-        <f>CONCATENATE(B53, " ", D53)</f>
+        <f t="shared" si="0"/>
         <v>Alice Chabot</v>
       </c>
       <c r="B53" t="s">
@@ -8451,7 +8461,7 @@
     </row>
     <row r="54" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="str">
-        <f>CONCATENATE(B54, " ", D54)</f>
+        <f t="shared" si="0"/>
         <v>Lisa Chang</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -8490,7 +8500,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="str">
-        <f>CONCATENATE(B55, " ", D55)</f>
+        <f t="shared" si="0"/>
         <v>Margaret Child</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -8535,7 +8545,7 @@
     </row>
     <row r="56" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="str">
-        <f>CONCATENATE(B56, " ", D56)</f>
+        <f t="shared" si="0"/>
         <v>Melissa Christino</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -8574,7 +8584,7 @@
     </row>
     <row r="57" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="str">
-        <f>CONCATENATE(B57, " ", D57)</f>
+        <f t="shared" si="0"/>
         <v>Lucy Chubb</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -8601,7 +8611,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="str">
-        <f>CONCATENATE(B58, " ", D58)</f>
+        <f t="shared" si="0"/>
         <v>Susan Churchill</v>
       </c>
       <c r="B58" t="s">
@@ -8646,7 +8656,7 @@
     </row>
     <row r="59" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="str">
-        <f>CONCATENATE(B59, " ", D59)</f>
+        <f t="shared" si="0"/>
         <v>Charlotte Clark</v>
       </c>
       <c r="B59" t="s">
@@ -8680,7 +8690,7 @@
       <c r="P59" s="4"/>
       <c r="Q59"/>
       <c r="R59" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S59"/>
       <c r="T59"/>
@@ -8697,7 +8707,7 @@
     </row>
     <row r="60" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="str">
-        <f>CONCATENATE(B60, " ", D60)</f>
+        <f t="shared" si="0"/>
         <v>Elizabeth Clark</v>
       </c>
       <c r="B60" t="s">
@@ -8752,7 +8762,7 @@
     </row>
     <row r="61" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="str">
-        <f>CONCATENATE(B61, " ", D61)</f>
+        <f t="shared" si="0"/>
         <v>Kerry Clark</v>
       </c>
       <c r="B61" t="s">
@@ -8807,7 +8817,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="str">
-        <f>CONCATENATE(B62, " ", D62)</f>
+        <f t="shared" si="0"/>
         <v>Daphne Clark</v>
       </c>
       <c r="B62" t="s">
@@ -8846,7 +8856,7 @@
     </row>
     <row r="63" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="str">
-        <f>CONCATENATE(B63, " ", D63)</f>
+        <f t="shared" si="0"/>
         <v>Phyllis Clark</v>
       </c>
       <c r="B63" t="s">
@@ -8903,7 +8913,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
-        <f>CONCATENATE(B64, " ", D64)</f>
+        <f t="shared" si="0"/>
         <v>Elizabeth Clyma</v>
       </c>
       <c r="B64" t="s">
@@ -8948,7 +8958,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="str">
-        <f>CONCATENATE(B65, " ", D65)</f>
+        <f t="shared" si="0"/>
         <v>Megan Colligan</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -9001,7 +9011,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="str">
-        <f>CONCATENATE(B66, " ", D66)</f>
+        <f t="shared" ref="A66:A129" si="1">CONCATENATE(B66, " ", D66)</f>
         <v>Celia Concannon</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -9035,7 +9045,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -9048,7 +9058,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="str">
-        <f>CONCATENATE(B67, " ", D67)</f>
+        <f t="shared" si="1"/>
         <v>Madison Conklin</v>
       </c>
       <c r="B67" t="s">
@@ -9073,7 +9083,7 @@
         <v>268</v>
       </c>
       <c r="R67" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="V67" t="s">
         <v>151</v>
@@ -9084,7 +9094,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="str">
-        <f>CONCATENATE(B68, " ", D68)</f>
+        <f t="shared" si="1"/>
         <v>Stephanie Connaughton</v>
       </c>
       <c r="B68" t="s">
@@ -9131,7 +9141,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="str">
-        <f>CONCATENATE(B69, " ", D69)</f>
+        <f t="shared" si="1"/>
         <v>Erin Cook</v>
       </c>
       <c r="B69" t="s">
@@ -9170,7 +9180,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="str">
-        <f>CONCATENATE(B70, " ", D70)</f>
+        <f t="shared" si="1"/>
         <v>Melanie Cook</v>
       </c>
       <c r="B70" t="s">
@@ -9215,7 +9225,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="str">
-        <f>CONCATENATE(B71, " ", D71)</f>
+        <f t="shared" si="1"/>
         <v>Lauren Corkery</v>
       </c>
       <c r="B71" t="s">
@@ -9257,7 +9267,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="str">
-        <f>CONCATENATE(B72, " ", D72)</f>
+        <f t="shared" si="1"/>
         <v>Jo-Anne Cosgriff</v>
       </c>
       <c r="B72" t="s">
@@ -9302,7 +9312,7 @@
     </row>
     <row r="73" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="str">
-        <f>CONCATENATE(B73, " ", D73)</f>
+        <f t="shared" si="1"/>
         <v>Loreen Costa</v>
       </c>
       <c r="B73" t="s">
@@ -9357,7 +9367,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="str">
-        <f>CONCATENATE(B74, " ", D74)</f>
+        <f t="shared" si="1"/>
         <v>Elizabeth Crabill</v>
       </c>
       <c r="B74" t="s">
@@ -9402,7 +9412,7 @@
     </row>
     <row r="75" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="str">
-        <f>CONCATENATE(B75, " ", D75)</f>
+        <f t="shared" si="1"/>
         <v>Melissa Crandall</v>
       </c>
       <c r="B75" t="s">
@@ -9457,7 +9467,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="str">
-        <f>CONCATENATE(B76, " ", D76)</f>
+        <f t="shared" si="1"/>
         <v>Margaret Crawford</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -9514,7 +9524,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="str">
-        <f>CONCATENATE(B77, " ", D77)</f>
+        <f t="shared" si="1"/>
         <v>Caroline Crenshaw</v>
       </c>
       <c r="B77" t="s">
@@ -9559,7 +9569,7 @@
     </row>
     <row r="78" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="str">
-        <f>CONCATENATE(B78, " ", D78)</f>
+        <f t="shared" si="1"/>
         <v>Molly Cross</v>
       </c>
       <c r="B78" t="s">
@@ -9614,7 +9624,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="str">
-        <f>CONCATENATE(B79, " ", D79)</f>
+        <f t="shared" si="1"/>
         <v>Alison Crump</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -9647,7 +9657,7 @@
       <c r="O79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -9656,7 +9666,7 @@
         <v>754</v>
       </c>
       <c r="W79" s="4" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
@@ -9664,7 +9674,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="str">
-        <f>CONCATENATE(B80, " ", D80)</f>
+        <f t="shared" si="1"/>
         <v>Jacquelyn Cuccurullo</v>
       </c>
       <c r="B80" t="s">
@@ -9689,7 +9699,7 @@
         <v>672</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="W80" t="s">
         <v>770</v>
@@ -9697,7 +9707,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="str">
-        <f>CONCATENATE(B81, " ", D81)</f>
+        <f t="shared" si="1"/>
         <v>Katrina Currier</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -9742,7 +9752,7 @@
     </row>
     <row r="82" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="str">
-        <f>CONCATENATE(B82, " ", D82)</f>
+        <f t="shared" si="1"/>
         <v>Theresa Curzan</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -9795,7 +9805,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="str">
-        <f>CONCATENATE(B83, " ", D83)</f>
+        <f t="shared" si="1"/>
         <v>Micaela Cyr</v>
       </c>
       <c r="B83" t="s">
@@ -9840,7 +9850,7 @@
     </row>
     <row r="84" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="str">
-        <f>CONCATENATE(B84, " ", D84)</f>
+        <f t="shared" si="1"/>
         <v>Alexis Dal Col</v>
       </c>
       <c r="B84" t="s">
@@ -9897,7 +9907,7 @@
     </row>
     <row r="85" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
-        <f>CONCATENATE(B85, " ", D85)</f>
+        <f t="shared" si="1"/>
         <v>Elizabeth Dann</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -9907,7 +9917,7 @@
         <v>617</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E85" s="2">
         <v>1995</v>
@@ -9922,27 +9932,27 @@
         <v>269</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="Q85" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>1769</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>1770</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>1262</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="str">
-        <f>CONCATENATE(B86, " ", D86)</f>
+        <f t="shared" si="1"/>
         <v>Sarah Henning Davis</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -9987,7 +9997,7 @@
     </row>
     <row r="87" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="str">
-        <f>CONCATENATE(B87, " ", D87)</f>
+        <f t="shared" si="1"/>
         <v>Lindsay Davison</v>
       </c>
       <c r="B87" t="s">
@@ -10044,7 +10054,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="str">
-        <f>CONCATENATE(B88, " ", D88)</f>
+        <f t="shared" si="1"/>
         <v>Elisabeth Dean</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -10091,7 +10101,7 @@
     </row>
     <row r="89" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="str">
-        <f>CONCATENATE(B89, " ", D89)</f>
+        <f t="shared" si="1"/>
         <v>Nicole DeHoratius</v>
       </c>
       <c r="B89" t="s">
@@ -10148,7 +10158,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
-        <f>CONCATENATE(B90, " ", D90)</f>
+        <f t="shared" si="1"/>
         <v>Kristin Demorest</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -10195,17 +10205,17 @@
     </row>
     <row r="91" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="str">
-        <f>CONCATENATE(B91, " ", D91)</f>
+        <f t="shared" si="1"/>
         <v>Francesca DenHartog</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E91" s="2">
         <v>1983</v>
@@ -10237,7 +10247,7 @@
     </row>
     <row r="92" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="str">
-        <f>CONCATENATE(B92, " ", D92)</f>
+        <f t="shared" si="1"/>
         <v>Kelly Dermody</v>
       </c>
       <c r="B92" t="s">
@@ -10294,7 +10304,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="str">
-        <f>CONCATENATE(B93, " ", D93)</f>
+        <f t="shared" si="1"/>
         <v>Bernadette Devine</v>
       </c>
       <c r="B93" t="s">
@@ -10338,7 +10348,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="str">
-        <f>CONCATENATE(B94, " ", D94)</f>
+        <f t="shared" si="1"/>
         <v>Isabella Di Pietro</v>
       </c>
       <c r="B94" t="s">
@@ -10363,7 +10373,7 @@
         <v>829</v>
       </c>
       <c r="R94" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="W94" t="s">
         <v>830</v>
@@ -10371,7 +10381,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="str">
-        <f>CONCATENATE(B95, " ", D95)</f>
+        <f t="shared" si="1"/>
         <v>Katherine Di Pietro</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -10426,7 +10436,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="str">
-        <f>CONCATENATE(B96, " ", D96)</f>
+        <f t="shared" si="1"/>
         <v>Julia DiNovi</v>
       </c>
       <c r="B96" t="s">
@@ -10468,7 +10478,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="str">
-        <f>CONCATENATE(B97, " ", D97)</f>
+        <f t="shared" si="1"/>
         <v>Bonnie Docherty</v>
       </c>
       <c r="B97" t="s">
@@ -10513,7 +10523,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="str">
-        <f>CONCATENATE(B98, " ", D98)</f>
+        <f t="shared" si="1"/>
         <v>Kelly Donahue</v>
       </c>
       <c r="B98" t="s">
@@ -10523,7 +10533,7 @@
         <v>569</v>
       </c>
       <c r="D98" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E98">
         <v>2009</v>
@@ -10535,16 +10545,16 @@
         <v>615</v>
       </c>
       <c r="M98" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="P98" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="Q98" s="4" t="s">
         <v>1667</v>
       </c>
-      <c r="Q98" s="4" t="s">
+      <c r="R98" s="4" t="s">
         <v>1668</v>
-      </c>
-      <c r="R98" s="4" t="s">
-        <v>1669</v>
       </c>
       <c r="S98" s="4" t="s">
         <v>1239</v>
@@ -10555,12 +10565,12 @@
         <v>151</v>
       </c>
       <c r="W98" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="str">
-        <f>CONCATENATE(B99, " ", D99)</f>
+        <f t="shared" si="1"/>
         <v>Keltie Donelan</v>
       </c>
       <c r="B99" t="s">
@@ -10602,7 +10612,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="str">
-        <f>CONCATENATE(B100, " ", D100)</f>
+        <f t="shared" si="1"/>
         <v>Christine Dooley</v>
       </c>
       <c r="B100" t="s">
@@ -10647,7 +10657,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="str">
-        <f>CONCATENATE(B101, " ", D101)</f>
+        <f t="shared" si="1"/>
         <v>Elizabeth Downing</v>
       </c>
       <c r="B101" t="s">
@@ -10692,7 +10702,7 @@
     </row>
     <row r="102" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="str">
-        <f>CONCATENATE(B102, " ", D102)</f>
+        <f t="shared" si="1"/>
         <v>Bridget Driscoll</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -10719,7 +10729,7 @@
     </row>
     <row r="103" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="str">
-        <f>CONCATENATE(B103, " ", D103)</f>
+        <f t="shared" si="1"/>
         <v>Elizabeth Drury</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -10746,7 +10756,7 @@
     </row>
     <row r="104" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="str">
-        <f>CONCATENATE(B104, " ", D104)</f>
+        <f t="shared" si="1"/>
         <v>Lynn Dwyer</v>
       </c>
       <c r="B104" t="s">
@@ -10803,7 +10813,7 @@
     </row>
     <row r="105" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="str">
-        <f>CONCATENATE(B105, " ", D105)</f>
+        <f t="shared" si="1"/>
         <v>Rachel Dyer</v>
       </c>
       <c r="B105" t="s">
@@ -10860,7 +10870,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="str">
-        <f>CONCATENATE(B106, " ", D106)</f>
+        <f t="shared" si="1"/>
         <v>Deborah Edgar</v>
       </c>
       <c r="B106" t="s">
@@ -10907,7 +10917,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="str">
-        <f>CONCATENATE(B107, " ", D107)</f>
+        <f t="shared" si="1"/>
         <v>Ceci Enge</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -10952,7 +10962,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="str">
-        <f>CONCATENATE(B108, " ", D108)</f>
+        <f t="shared" si="1"/>
         <v>Wendy Erickson</v>
       </c>
       <c r="B108" t="s">
@@ -10962,7 +10972,7 @@
         <v>565</v>
       </c>
       <c r="D108" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E108">
         <v>1981</v>
@@ -10977,13 +10987,13 @@
         <v>268</v>
       </c>
       <c r="Q108" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="R108" s="4" t="s">
         <v>1652</v>
       </c>
-      <c r="R108" s="4" t="s">
-        <v>1653</v>
-      </c>
       <c r="S108" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
@@ -10991,12 +11001,12 @@
         <v>188</v>
       </c>
       <c r="W108" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="str">
-        <f>CONCATENATE(B109, " ", D109)</f>
+        <f t="shared" si="1"/>
         <v>Elizabeth Fagan</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -11028,10 +11038,10 @@
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Q109" s="2" t="s">
         <v>1470</v>
-      </c>
-      <c r="Q109" s="2" t="s">
-        <v>1471</v>
       </c>
       <c r="R109" s="2" t="s">
         <v>1261</v>
@@ -11042,18 +11052,18 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="W109" s="2"/>
       <c r="X109" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="str">
-        <f>CONCATENATE(B110, " ", D110)</f>
+        <f t="shared" si="1"/>
         <v>Tory Fair</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11110,7 +11120,7 @@
     </row>
     <row r="111" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="str">
-        <f>CONCATENATE(B111, " ", D111)</f>
+        <f t="shared" si="1"/>
         <v>Claire Farley</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -11140,7 +11150,7 @@
     </row>
     <row r="112" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="str">
-        <f>CONCATENATE(B112, " ", D112)</f>
+        <f t="shared" si="1"/>
         <v>Gaby Fernandopulle</v>
       </c>
       <c r="B112" t="s">
@@ -11172,7 +11182,7 @@
       <c r="P112" s="4"/>
       <c r="Q112"/>
       <c r="R112" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
@@ -11187,7 +11197,7 @@
     </row>
     <row r="113" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="str">
-        <f>CONCATENATE(B113, " ", D113)</f>
+        <f t="shared" si="1"/>
         <v>Jeanne Ficociello</v>
       </c>
       <c r="B113" t="s">
@@ -11244,7 +11254,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="str">
-        <f>CONCATENATE(B114, " ", D114)</f>
+        <f t="shared" si="1"/>
         <v>Diana Finch</v>
       </c>
       <c r="B114" t="s">
@@ -11278,7 +11288,7 @@
         <v>908</v>
       </c>
       <c r="S114" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
@@ -11291,7 +11301,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="str">
-        <f>CONCATENATE(B115, " ", D115)</f>
+        <f t="shared" si="1"/>
         <v>Susan Fiore</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -11344,7 +11354,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="str">
-        <f>CONCATENATE(B116, " ", D116)</f>
+        <f t="shared" si="1"/>
         <v>Caroline Fitzgerald</v>
       </c>
       <c r="B116" t="s">
@@ -11386,7 +11396,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="str">
-        <f>CONCATENATE(B117, " ", D117)</f>
+        <f t="shared" si="1"/>
         <v>Sara Flood</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -11410,7 +11420,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>266</v>
@@ -11431,7 +11441,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="str">
-        <f>CONCATENATE(B118, " ", D118)</f>
+        <f t="shared" si="1"/>
         <v>Bridget Flynn</v>
       </c>
       <c r="B118" t="s">
@@ -11473,7 +11483,7 @@
     </row>
     <row r="119" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="str">
-        <f>CONCATENATE(B119, " ", D119)</f>
+        <f t="shared" si="1"/>
         <v>Shannon Flynn</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -11500,7 +11510,7 @@
     </row>
     <row r="120" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="str">
-        <f>CONCATENATE(B120, " ", D120)</f>
+        <f t="shared" si="1"/>
         <v>Emma Ford</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -11555,7 +11565,7 @@
     </row>
     <row r="121" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="str">
-        <f>CONCATENATE(B121, " ", D121)</f>
+        <f t="shared" si="1"/>
         <v>Lauren Ford</v>
       </c>
       <c r="B121" t="s">
@@ -11579,7 +11589,7 @@
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M121" t="s">
         <v>266</v>
@@ -11589,7 +11599,7 @@
       <c r="P121" s="4"/>
       <c r="Q121"/>
       <c r="R121" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S121"/>
       <c r="T121"/>
@@ -11604,7 +11614,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="str">
-        <f>CONCATENATE(B122, " ", D122)</f>
+        <f t="shared" si="1"/>
         <v>Alyson Ford</v>
       </c>
       <c r="B122" t="s">
@@ -11629,13 +11639,13 @@
         <v>263</v>
       </c>
       <c r="P122" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Q122" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="Q122" s="4" t="s">
+      <c r="R122" s="4" t="s">
         <v>1388</v>
-      </c>
-      <c r="R122" s="4" t="s">
-        <v>1389</v>
       </c>
       <c r="S122" s="4" t="s">
         <v>141</v>
@@ -11646,12 +11656,12 @@
         <v>754</v>
       </c>
       <c r="W122" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="123" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="str">
-        <f>CONCATENATE(B123, " ", D123)</f>
+        <f t="shared" si="1"/>
         <v>Blair Fosburgh</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -11661,7 +11671,7 @@
         <v>610</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E123" s="4">
         <v>1986</v>
@@ -11683,13 +11693,13 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="Q123" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R123" s="4" t="s">
         <v>1753</v>
-      </c>
-      <c r="Q123" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="R123" s="4" t="s">
-        <v>1754</v>
       </c>
       <c r="S123" s="4" t="s">
         <v>1262</v>
@@ -11700,7 +11710,7 @@
         <v>151</v>
       </c>
       <c r="W123" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
@@ -11708,7 +11718,7 @@
     </row>
     <row r="124" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="str">
-        <f>CONCATENATE(B124, " ", D124)</f>
+        <f t="shared" si="1"/>
         <v>Elizabeth Foster</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -11753,7 +11763,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="str">
-        <f>CONCATENATE(B125, " ", D125)</f>
+        <f t="shared" si="1"/>
         <v>Cynthia Frame</v>
       </c>
       <c r="B125" t="s">
@@ -11798,7 +11808,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="str">
-        <f>CONCATENATE(B126, " ", D126)</f>
+        <f t="shared" si="1"/>
         <v>Lisa Franks</v>
       </c>
       <c r="B126" t="s">
@@ -11843,7 +11853,7 @@
     </row>
     <row r="127" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="str">
-        <f>CONCATENATE(B127, " ", D127)</f>
+        <f t="shared" si="1"/>
         <v>Beth Frates</v>
       </c>
       <c r="B127" t="s">
@@ -11853,7 +11863,7 @@
         <v>498</v>
       </c>
       <c r="D127" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E127">
         <v>1990</v>
@@ -11875,16 +11885,16 @@
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q127" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="Q127" s="4" t="s">
+      <c r="R127" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="R127" s="4" t="s">
+      <c r="S127" s="4" t="s">
         <v>1496</v>
-      </c>
-      <c r="S127" s="4" t="s">
-        <v>1497</v>
       </c>
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
@@ -11892,7 +11902,7 @@
         <v>151</v>
       </c>
       <c r="W127" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="X127"/>
       <c r="Y127"/>
@@ -11900,7 +11910,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="str">
-        <f>CONCATENATE(B128, " ", D128)</f>
+        <f t="shared" si="1"/>
         <v>Lizzy Frisbie</v>
       </c>
       <c r="B128" t="s">
@@ -11939,7 +11949,7 @@
     </row>
     <row r="129" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
-        <f>CONCATENATE(B129, " ", D129)</f>
+        <f t="shared" si="1"/>
         <v>Kelly Furia</v>
       </c>
       <c r="B129" t="s">
@@ -11994,7 +12004,7 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="str">
-        <f>CONCATENATE(B130, " ", D130)</f>
+        <f t="shared" ref="A130:A193" si="2">CONCATENATE(B130, " ", D130)</f>
         <v>Kim Gailun</v>
       </c>
       <c r="B130" t="s">
@@ -12004,7 +12014,7 @@
         <v>611</v>
       </c>
       <c r="D130" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E130">
         <v>2000</v>
@@ -12019,10 +12029,10 @@
         <v>269</v>
       </c>
       <c r="Q130" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="R130" s="4" t="s">
         <v>1757</v>
-      </c>
-      <c r="R130" s="4" t="s">
-        <v>1758</v>
       </c>
       <c r="S130" s="4" t="s">
         <v>25</v>
@@ -12033,12 +12043,12 @@
         <v>151</v>
       </c>
       <c r="W130" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="131" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="str">
-        <f>CONCATENATE(B131, " ", D131)</f>
+        <f t="shared" si="2"/>
         <v>Anne Garfinkel</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -12048,7 +12058,7 @@
         <v>597</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E131" s="2">
         <v>1991</v>
@@ -12065,7 +12075,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="str">
-        <f>CONCATENATE(B132, " ", D132)</f>
+        <f t="shared" si="2"/>
         <v>Caroline Garrity</v>
       </c>
       <c r="B132" t="s">
@@ -12093,13 +12103,13 @@
         <v>265</v>
       </c>
       <c r="Q132" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="R132" s="4" t="s">
         <v>1808</v>
       </c>
-      <c r="R132" s="4" t="s">
+      <c r="S132" s="4" t="s">
         <v>1809</v>
-      </c>
-      <c r="S132" s="4" t="s">
-        <v>1810</v>
       </c>
       <c r="V132" t="s">
         <v>151</v>
@@ -12110,7 +12120,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="str">
-        <f>CONCATENATE(B133, " ", D133)</f>
+        <f t="shared" si="2"/>
         <v>Chloe Gavin</v>
       </c>
       <c r="B133" t="s">
@@ -12155,7 +12165,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="str">
-        <f>CONCATENATE(B134, " ", D134)</f>
+        <f t="shared" si="2"/>
         <v>Olly Gill</v>
       </c>
       <c r="B134" t="s">
@@ -12180,7 +12190,7 @@
         <v>268</v>
       </c>
       <c r="R134" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="V134" t="s">
         <v>151</v>
@@ -12191,7 +12201,7 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="str">
-        <f>CONCATENATE(B135, " ", D135)</f>
+        <f t="shared" si="2"/>
         <v>Ellen Gleason</v>
       </c>
       <c r="B135" t="s">
@@ -12233,7 +12243,7 @@
     </row>
     <row r="136" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="str">
-        <f>CONCATENATE(B136, " ", D136)</f>
+        <f t="shared" si="2"/>
         <v>Julia Glynn</v>
       </c>
       <c r="B136" t="s">
@@ -12288,7 +12298,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="str">
-        <f>CONCATENATE(B137, " ", D137)</f>
+        <f t="shared" si="2"/>
         <v>Marcia Goldberg</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -12337,7 +12347,7 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="str">
-        <f>CONCATENATE(B138, " ", D138)</f>
+        <f t="shared" si="2"/>
         <v>Kristin Gore</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -12382,7 +12392,7 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="str">
-        <f>CONCATENATE(B139, " ", D139)</f>
+        <f t="shared" si="2"/>
         <v>Heather Gotha</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -12427,7 +12437,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="str">
-        <f>CONCATENATE(B140, " ", D140)</f>
+        <f t="shared" si="2"/>
         <v>Jennifer Greeley</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -12474,7 +12484,7 @@
     </row>
     <row r="141" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="str">
-        <f>CONCATENATE(B141, " ", D141)</f>
+        <f t="shared" si="2"/>
         <v>Tate Green</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -12508,7 +12518,7 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
@@ -12525,7 +12535,7 @@
     </row>
     <row r="142" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
-        <f>CONCATENATE(B142, " ", D142)</f>
+        <f t="shared" si="2"/>
         <v>Mary Griffin</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -12552,7 +12562,7 @@
     </row>
     <row r="143" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="str">
-        <f>CONCATENATE(B143, " ", D143)</f>
+        <f t="shared" si="2"/>
         <v>Leelee Groome</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -12609,7 +12619,7 @@
     </row>
     <row r="144" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="str">
-        <f>CONCATENATE(B144, " ", D144)</f>
+        <f t="shared" si="2"/>
         <v>Keren Gudeman</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -12666,7 +12676,7 @@
     </row>
     <row r="145" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="str">
-        <f>CONCATENATE(B145, " ", D145)</f>
+        <f t="shared" si="2"/>
         <v>Elizabeth Guild</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -12721,7 +12731,7 @@
     </row>
     <row r="146" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="str">
-        <f>CONCATENATE(B146, " ", D146)</f>
+        <f t="shared" si="2"/>
         <v>Liv Gundrum</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -12774,7 +12784,7 @@
     </row>
     <row r="147" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="str">
-        <f>CONCATENATE(B147, " ", D147)</f>
+        <f t="shared" si="2"/>
         <v>Nora Guyer</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -12816,7 +12826,7 @@
     </row>
     <row r="148" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="str">
-        <f>CONCATENATE(B148, " ", D148)</f>
+        <f t="shared" si="2"/>
         <v>Megan Hall</v>
       </c>
       <c r="B148" t="s">
@@ -12873,7 +12883,7 @@
     </row>
     <row r="149" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="str">
-        <f>CONCATENATE(B149, " ", D149)</f>
+        <f t="shared" si="2"/>
         <v>Jessica Halpern</v>
       </c>
       <c r="B149" t="s">
@@ -12930,7 +12940,7 @@
     </row>
     <row r="150" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="str">
-        <f>CONCATENATE(B150, " ", D150)</f>
+        <f t="shared" si="2"/>
         <v>Molly Hammerberg</v>
       </c>
       <c r="B150" t="s">
@@ -12987,7 +12997,7 @@
     </row>
     <row r="151" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="str">
-        <f>CONCATENATE(B151, " ", D151)</f>
+        <f t="shared" si="2"/>
         <v>Allison Harper</v>
       </c>
       <c r="B151" t="s">
@@ -13044,7 +13054,7 @@
     </row>
     <row r="152" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="str">
-        <f>CONCATENATE(B152, " ", D152)</f>
+        <f t="shared" si="2"/>
         <v>Jenn Hatfield</v>
       </c>
       <c r="B152" t="s">
@@ -13099,7 +13109,7 @@
     </row>
     <row r="153" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="str">
-        <f>CONCATENATE(B153, " ", D153)</f>
+        <f t="shared" si="2"/>
         <v>Ann C. Hayden</v>
       </c>
       <c r="B153" t="s">
@@ -13156,7 +13166,7 @@
     </row>
     <row r="154" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="str">
-        <f>CONCATENATE(B154, " ", D154)</f>
+        <f t="shared" si="2"/>
         <v>Jaqueline Hehir</v>
       </c>
       <c r="B154" t="s">
@@ -13213,7 +13223,7 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="str">
-        <f>CONCATENATE(B155, " ", D155)</f>
+        <f t="shared" si="2"/>
         <v>Maria Hennessey</v>
       </c>
       <c r="B155" t="s">
@@ -13255,7 +13265,7 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="str">
-        <f>CONCATENATE(B156, " ", D156)</f>
+        <f t="shared" si="2"/>
         <v>Megan Hennessey</v>
       </c>
       <c r="B156" t="s">
@@ -13297,7 +13307,7 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="str">
-        <f>CONCATENATE(B157, " ", D157)</f>
+        <f t="shared" si="2"/>
         <v>Elizabeth Henry</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -13354,7 +13364,7 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="str">
-        <f>CONCATENATE(B158, " ", D158)</f>
+        <f t="shared" si="2"/>
         <v>Jen Holleran</v>
       </c>
       <c r="B158" t="s">
@@ -13401,7 +13411,7 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="str">
-        <f>CONCATENATE(B159, " ", D159)</f>
+        <f t="shared" si="2"/>
         <v>Lauren Holmes</v>
       </c>
       <c r="B159" t="s">
@@ -13451,7 +13461,7 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="str">
-        <f>CONCATENATE(B160, " ", D160)</f>
+        <f t="shared" si="2"/>
         <v>Caroline Huebner</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -13506,7 +13516,7 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="str">
-        <f>CONCATENATE(B161, " ", D161)</f>
+        <f t="shared" si="2"/>
         <v>Grace Hulslander</v>
       </c>
       <c r="B161" t="s">
@@ -13531,7 +13541,7 @@
         <v>266</v>
       </c>
       <c r="R161" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S161" s="4"/>
       <c r="T161" s="4"/>
@@ -13545,7 +13555,7 @@
     </row>
     <row r="162" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="str">
-        <f>CONCATENATE(B162, " ", D162)</f>
+        <f t="shared" si="2"/>
         <v>Lauren Ianni</v>
       </c>
       <c r="B162" t="s">
@@ -13602,7 +13612,7 @@
     </row>
     <row r="163" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="str">
-        <f>CONCATENATE(B163, " ", D163)</f>
+        <f t="shared" si="2"/>
         <v>Rebecca Jablonski</v>
       </c>
       <c r="B163" t="s">
@@ -13657,7 +13667,7 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="str">
-        <f>CONCATENATE(B164, " ", D164)</f>
+        <f t="shared" si="2"/>
         <v>Alexandra Jacobs</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -13702,7 +13712,7 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="str">
-        <f>CONCATENATE(B165, " ", D165)</f>
+        <f t="shared" si="2"/>
         <v>Karen Jain</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -13747,17 +13757,17 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="str">
-        <f>CONCATENATE(B166, " ", D166)</f>
+        <f t="shared" si="2"/>
         <v>Lucy Jarka-Sellers</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>1622</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>1623</v>
       </c>
       <c r="E166" s="2">
         <v>1986</v>
@@ -13774,7 +13784,7 @@
         <v>615</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -13792,7 +13802,7 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="str">
-        <f>CONCATENATE(B167, " ", D167)</f>
+        <f t="shared" si="2"/>
         <v>Mariel Jenkins</v>
       </c>
       <c r="B167" t="s">
@@ -13836,7 +13846,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="str">
-        <f>CONCATENATE(B168, " ", D168)</f>
+        <f t="shared" si="2"/>
         <v>Marley Jenkins</v>
       </c>
       <c r="B168" t="s">
@@ -13880,7 +13890,7 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="str">
-        <f>CONCATENATE(B169, " ", D169)</f>
+        <f t="shared" si="2"/>
         <v>Shea Jenkins</v>
       </c>
       <c r="B169" t="s">
@@ -13908,7 +13918,7 @@
         <v>268</v>
       </c>
       <c r="R169" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
@@ -13922,7 +13932,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="str">
-        <f>CONCATENATE(B170, " ", D170)</f>
+        <f t="shared" si="2"/>
         <v>Cynthia Jensen</v>
       </c>
       <c r="B170" t="s">
@@ -13969,7 +13979,7 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="str">
-        <f>CONCATENATE(B171, " ", D171)</f>
+        <f t="shared" si="2"/>
         <v>Ann P Johnson</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -14022,7 +14032,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="str">
-        <f>CONCATENATE(B172, " ", D172)</f>
+        <f t="shared" si="2"/>
         <v>Laura Johnson</v>
       </c>
       <c r="B172" t="s">
@@ -14069,7 +14079,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="str">
-        <f>CONCATENATE(B173, " ", D173)</f>
+        <f t="shared" si="2"/>
         <v>Marie Johnson</v>
       </c>
       <c r="B173" t="s">
@@ -14116,7 +14126,7 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="str">
-        <f>CONCATENATE(B174, " ", D174)</f>
+        <f t="shared" si="2"/>
         <v>Anna Jones</v>
       </c>
       <c r="B174" t="s">
@@ -14160,7 +14170,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="str">
-        <f>CONCATENATE(B175, " ", D175)</f>
+        <f t="shared" si="2"/>
         <v>Carlyle Jones</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -14205,7 +14215,7 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="str">
-        <f>CONCATENATE(B176, " ", D176)</f>
+        <f t="shared" si="2"/>
         <v>Charlotte Joslin</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -14252,7 +14262,7 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="str">
-        <f>CONCATENATE(B177, " ", D177)</f>
+        <f t="shared" si="2"/>
         <v>Ashley Jostrom</v>
       </c>
       <c r="B177" t="s">
@@ -14297,7 +14307,7 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="str">
-        <f>CONCATENATE(B178, " ", D178)</f>
+        <f t="shared" si="2"/>
         <v>Megan Karlen</v>
       </c>
       <c r="B178" t="s">
@@ -14342,11 +14352,11 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="str">
-        <f>CONCATENATE(B179, " ", D179)</f>
+        <f t="shared" si="2"/>
         <v>Francie Karlen</v>
       </c>
       <c r="B179" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>608</v>
@@ -14370,10 +14380,10 @@
         <v>861</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R179" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="S179" s="4" t="s">
         <v>746</v>
@@ -14384,12 +14394,12 @@
         <v>151</v>
       </c>
       <c r="W179" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="str">
-        <f>CONCATENATE(B180, " ", D180)</f>
+        <f t="shared" si="2"/>
         <v>Allison Kaveney</v>
       </c>
       <c r="B180" s="8" t="s">
@@ -14438,7 +14448,7 @@
     </row>
     <row r="181" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="str">
-        <f>CONCATENATE(B181, " ", D181)</f>
+        <f t="shared" si="2"/>
         <v>Hannah Keating</v>
       </c>
       <c r="B181" t="s">
@@ -14472,7 +14482,7 @@
       <c r="P181" s="4"/>
       <c r="Q181"/>
       <c r="R181" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
@@ -14489,17 +14499,17 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="str">
-        <f>CONCATENATE(B182, " ", D182)</f>
+        <f t="shared" si="2"/>
         <v>Nancy Kerrebrock</v>
       </c>
       <c r="B182" t="s">
         <v>58</v>
       </c>
       <c r="C182" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D182" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E182">
         <v>1979</v>
@@ -14536,7 +14546,7 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="str">
-        <f>CONCATENATE(B183, " ", D183)</f>
+        <f t="shared" si="2"/>
         <v>Jennifer Koss</v>
       </c>
       <c r="B183" t="s">
@@ -14586,7 +14596,7 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="str">
-        <f>CONCATENATE(B184, " ", D184)</f>
+        <f t="shared" si="2"/>
         <v>Delia Ann Kristol</v>
       </c>
       <c r="B184" t="s">
@@ -14596,7 +14606,7 @@
         <v>489</v>
       </c>
       <c r="D184" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E184">
         <v>2010</v>
@@ -14611,13 +14621,13 @@
         <v>263</v>
       </c>
       <c r="P184" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q184" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="Q184" s="4" t="s">
+      <c r="R184" s="4" t="s">
         <v>1480</v>
-      </c>
-      <c r="R184" s="4" t="s">
-        <v>1481</v>
       </c>
       <c r="S184" s="4" t="s">
         <v>1262</v>
@@ -14628,12 +14638,12 @@
         <v>147</v>
       </c>
       <c r="W184" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="str">
-        <f>CONCATENATE(B185, " ", D185)</f>
+        <f t="shared" si="2"/>
         <v>Nina Kucharczyk</v>
       </c>
       <c r="B185" t="s">
@@ -14678,7 +14688,7 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="str">
-        <f>CONCATENATE(B186, " ", D186)</f>
+        <f t="shared" si="2"/>
         <v>Ceci Kurzman</v>
       </c>
       <c r="B186" t="s">
@@ -14720,7 +14730,7 @@
     </row>
     <row r="187" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="str">
-        <f>CONCATENATE(B187, " ", D187)</f>
+        <f t="shared" si="2"/>
         <v>Kim Landry</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -14750,7 +14760,7 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="str">
-        <f>CONCATENATE(B188, " ", D188)</f>
+        <f t="shared" si="2"/>
         <v>Perry Lane</v>
       </c>
       <c r="B188" t="s">
@@ -14792,7 +14802,7 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="str">
-        <f>CONCATENATE(B189, " ", D189)</f>
+        <f t="shared" si="2"/>
         <v>Elizabeth LaRowe</v>
       </c>
       <c r="B189" t="s">
@@ -14839,7 +14849,7 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="str">
-        <f>CONCATENATE(B190, " ", D190)</f>
+        <f t="shared" si="2"/>
         <v>Vanessa Lavely</v>
       </c>
       <c r="B190" t="s">
@@ -14884,7 +14894,7 @@
     </row>
     <row r="191" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="str">
-        <f>CONCATENATE(B191, " ", D191)</f>
+        <f t="shared" si="2"/>
         <v>Sarah Leary</v>
       </c>
       <c r="B191" t="s">
@@ -14941,7 +14951,7 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="str">
-        <f>CONCATENATE(B192, " ", D192)</f>
+        <f t="shared" si="2"/>
         <v>Heather Leder</v>
       </c>
       <c r="B192" t="s">
@@ -14988,7 +14998,7 @@
     </row>
     <row r="193" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="str">
-        <f>CONCATENATE(B193, " ", D193)</f>
+        <f t="shared" si="2"/>
         <v>Jenn Leffew</v>
       </c>
       <c r="B193" t="s">
@@ -15043,7 +15053,7 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="str">
-        <f>CONCATENATE(B194, " ", D194)</f>
+        <f t="shared" ref="A194:A257" si="3">CONCATENATE(B194, " ", D194)</f>
         <v>Courtney Leimkuhler</v>
       </c>
       <c r="B194" t="s">
@@ -15090,7 +15100,7 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="str">
-        <f>CONCATENATE(B195, " ", D195)</f>
+        <f t="shared" si="3"/>
         <v>Julia Lennon</v>
       </c>
       <c r="B195" t="s">
@@ -15134,7 +15144,7 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="str">
-        <f>CONCATENATE(B196, " ", D196)</f>
+        <f t="shared" si="3"/>
         <v>Catherine Levy</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -15179,17 +15189,17 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="str">
-        <f>CONCATENATE(B197, " ", D197)</f>
+        <f t="shared" si="3"/>
         <v>Carlene Lewis</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>519</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E197" s="10">
         <v>1976</v>
@@ -15211,10 +15221,10 @@
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
       <c r="P197" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="Q197" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="R197" s="10" t="s">
         <v>150</v>
@@ -15229,12 +15239,12 @@
       <c r="X197" s="10"/>
       <c r="Y197" s="10"/>
       <c r="Z197" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="str">
-        <f>CONCATENATE(B198, " ", D198)</f>
+        <f t="shared" si="3"/>
         <v>Lisa Lightbody</v>
       </c>
       <c r="B198" t="s">
@@ -15281,7 +15291,7 @@
     </row>
     <row r="199" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="str">
-        <f>CONCATENATE(B199, " ", D199)</f>
+        <f t="shared" si="3"/>
         <v>Ada Lin</v>
       </c>
       <c r="B199" t="s">
@@ -15338,7 +15348,7 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="str">
-        <f>CONCATENATE(B200, " ", D200)</f>
+        <f t="shared" si="3"/>
         <v>Yi Liu</v>
       </c>
       <c r="B200" t="s">
@@ -15385,7 +15395,7 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="str">
-        <f>CONCATENATE(B201, " ", D201)</f>
+        <f t="shared" si="3"/>
         <v>Frances Lloyd</v>
       </c>
       <c r="B201" t="s">
@@ -15432,7 +15442,7 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="str">
-        <f>CONCATENATE(B202, " ", D202)</f>
+        <f t="shared" si="3"/>
         <v>Ali Lombardo</v>
       </c>
       <c r="B202" t="s">
@@ -15476,7 +15486,7 @@
     </row>
     <row r="203" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="str">
-        <f>CONCATENATE(B203, " ", D203)</f>
+        <f t="shared" si="3"/>
         <v>Sarah Lorenzana</v>
       </c>
       <c r="B203" t="s">
@@ -15531,7 +15541,7 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="str">
-        <f>CONCATENATE(B204, " ", D204)</f>
+        <f t="shared" si="3"/>
         <v>Caroline Luis</v>
       </c>
       <c r="B204" t="s">
@@ -15577,7 +15587,7 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="str">
-        <f>CONCATENATE(B205, " ", D205)</f>
+        <f t="shared" si="3"/>
         <v>Lily Lyman</v>
       </c>
       <c r="B205" t="s">
@@ -15626,7 +15636,7 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="str">
-        <f>CONCATENATE(B206, " ", D206)</f>
+        <f t="shared" si="3"/>
         <v>Keeley MacAfee</v>
       </c>
       <c r="B206" t="s">
@@ -15670,7 +15680,7 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="str">
-        <f>CONCATENATE(B207, " ", D207)</f>
+        <f t="shared" si="3"/>
         <v>Tori Machado</v>
       </c>
       <c r="B207" t="s">
@@ -15714,7 +15724,7 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="str">
-        <f>CONCATENATE(B208, " ", D208)</f>
+        <f t="shared" si="3"/>
         <v>Anne MacMillan</v>
       </c>
       <c r="B208" t="s">
@@ -15761,7 +15771,7 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="str">
-        <f>CONCATENATE(B209, " ", D209)</f>
+        <f t="shared" si="3"/>
         <v>Honor MacNaughton</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -15806,7 +15816,7 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="str">
-        <f>CONCATENATE(B210, " ", D210)</f>
+        <f t="shared" si="3"/>
         <v>Sarah Magraw</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -15860,7 +15870,7 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="str">
-        <f>CONCATENATE(B211, " ", D211)</f>
+        <f t="shared" si="3"/>
         <v>Andrea Mainelli</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -15917,7 +15927,7 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="str">
-        <f>CONCATENATE(B212, " ", D212)</f>
+        <f t="shared" si="3"/>
         <v>Genevieve Mallgrave</v>
       </c>
       <c r="B212" t="s">
@@ -15950,7 +15960,7 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="str">
-        <f>CONCATENATE(B213, " ", D213)</f>
+        <f t="shared" si="3"/>
         <v>Chelsea Marlborough</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -15998,7 +16008,7 @@
     </row>
     <row r="214" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="str">
-        <f>CONCATENATE(B214, " ", D214)</f>
+        <f t="shared" si="3"/>
         <v>Kathryn Martin</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -16043,7 +16053,7 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="str">
-        <f>CONCATENATE(B215, " ", D215)</f>
+        <f t="shared" si="3"/>
         <v>Jake Martino</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -16100,7 +16110,7 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="str">
-        <f>CONCATENATE(B216, " ", D216)</f>
+        <f t="shared" si="3"/>
         <v>Genevieve Marvin</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -16145,7 +16155,7 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="str">
-        <f>CONCATENATE(B217, " ", D217)</f>
+        <f t="shared" si="3"/>
         <v>Ashley Matlow</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -16190,7 +16200,7 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="str">
-        <f>CONCATENATE(B218, " ", D218)</f>
+        <f t="shared" si="3"/>
         <v>Barbara Matson</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -16237,7 +16247,7 @@
     </row>
     <row r="219" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="str">
-        <f>CONCATENATE(B219, " ", D219)</f>
+        <f t="shared" si="3"/>
         <v>Alexis Maybank</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -16294,7 +16304,7 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="str">
-        <f>CONCATENATE(B220, " ", D220)</f>
+        <f t="shared" si="3"/>
         <v>Erin McCafferty</v>
       </c>
       <c r="B220" t="s">
@@ -16339,7 +16349,7 @@
     </row>
     <row r="221" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="str">
-        <f>CONCATENATE(B221, " ", D221)</f>
+        <f t="shared" si="3"/>
         <v>Nekele McCall</v>
       </c>
       <c r="B221" t="s">
@@ -16396,7 +16406,7 @@
     </row>
     <row r="222" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="str">
-        <f>CONCATENATE(B222, " ", D222)</f>
+        <f t="shared" si="3"/>
         <v>Emily McCann</v>
       </c>
       <c r="B222" t="s">
@@ -16451,7 +16461,7 @@
     </row>
     <row r="223" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="str">
-        <f>CONCATENATE(B223, " ", D223)</f>
+        <f t="shared" si="3"/>
         <v>Hope McGrath</v>
       </c>
       <c r="B223" t="s">
@@ -16506,7 +16516,7 @@
     </row>
     <row r="224" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="str">
-        <f>CONCATENATE(B224, " ", D224)</f>
+        <f t="shared" si="3"/>
         <v>Rebecca McIntyre</v>
       </c>
       <c r="B224" t="s">
@@ -16541,19 +16551,19 @@
         <v>666</v>
       </c>
       <c r="Q224" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="R224" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="S224" s="4" t="s">
         <v>1381</v>
-      </c>
-      <c r="R224" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="S224" s="4" t="s">
-        <v>1382</v>
       </c>
       <c r="V224" s="4" t="s">
         <v>151</v>
       </c>
       <c r="W224" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="X224"/>
       <c r="Y224"/>
@@ -16561,7 +16571,7 @@
     </row>
     <row r="225" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="str">
-        <f>CONCATENATE(B225, " ", D225)</f>
+        <f t="shared" si="3"/>
         <v>Maeve McMahon</v>
       </c>
       <c r="B225" t="s">
@@ -16599,7 +16609,7 @@
         <v>1374</v>
       </c>
       <c r="R225" s="4" t="s">
-        <v>1375</v>
+        <v>985</v>
       </c>
       <c r="S225" s="4" t="s">
         <v>25</v>
@@ -16608,7 +16618,7 @@
         <v>1214</v>
       </c>
       <c r="W225" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="X225"/>
       <c r="Y225"/>
@@ -16616,7 +16626,7 @@
     </row>
     <row r="226" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="str">
-        <f>CONCATENATE(B226, " ", D226)</f>
+        <f t="shared" si="3"/>
         <v>Samantha McMahon</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -16649,13 +16659,13 @@
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
       <c r="Q226" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="R226" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="R226" s="2" t="s">
-        <v>1378</v>
-      </c>
       <c r="S226" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="T226" s="2"/>
       <c r="U226" s="2"/>
@@ -16664,14 +16674,14 @@
       </c>
       <c r="W226" s="2"/>
       <c r="X226" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
     <row r="227" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="str">
-        <f>CONCATENATE(B227, " ", D227)</f>
+        <f t="shared" si="3"/>
         <v>Nancy Meakem</v>
       </c>
       <c r="B227" t="s">
@@ -16703,10 +16713,10 @@
       <c r="N227"/>
       <c r="O227"/>
       <c r="Q227" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="R227" s="4" t="s">
         <v>1384</v>
-      </c>
-      <c r="R227" s="4" t="s">
-        <v>1385</v>
       </c>
       <c r="S227" s="4" t="s">
         <v>1351</v>
@@ -16715,7 +16725,7 @@
         <v>729</v>
       </c>
       <c r="W227" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="X227"/>
       <c r="Y227"/>
@@ -16723,7 +16733,7 @@
     </row>
     <row r="228" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="str">
-        <f>CONCATENATE(B228, " ", D228)</f>
+        <f t="shared" si="3"/>
         <v>Laura Merriman</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -16768,7 +16778,7 @@
     </row>
     <row r="229" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="str">
-        <f>CONCATENATE(B229, " ", D229)</f>
+        <f t="shared" si="3"/>
         <v>Jennifer Metz</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -16815,11 +16825,11 @@
     </row>
     <row r="230" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="str">
-        <f>CONCATENATE(B230, " ", D230)</f>
+        <f t="shared" si="3"/>
         <v>Annie Meyjes</v>
       </c>
       <c r="B230" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C230" t="s">
         <v>459</v>
@@ -16839,7 +16849,7 @@
       <c r="J230"/>
       <c r="K230"/>
       <c r="L230" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M230" s="4" t="s">
         <v>268</v>
@@ -16848,7 +16858,7 @@
       <c r="O230"/>
       <c r="P230" s="4"/>
       <c r="Q230" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="R230" s="4" t="s">
         <v>218</v>
@@ -16862,7 +16872,7 @@
         <v>664</v>
       </c>
       <c r="W230" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="X230"/>
       <c r="Y230"/>
@@ -16870,7 +16880,7 @@
     </row>
     <row r="231" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="str">
-        <f>CONCATENATE(B231, " ", D231)</f>
+        <f t="shared" si="3"/>
         <v>Emma Millon</v>
       </c>
       <c r="B231" t="s">
@@ -16902,22 +16912,22 @@
       <c r="N231"/>
       <c r="O231"/>
       <c r="P231" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q231" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="Q231" s="4" t="s">
+      <c r="R231" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="R231" s="4" t="s">
+      <c r="S231" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="S231" s="4" t="s">
+      <c r="V231" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="V231" s="4" t="s">
+      <c r="W231" t="s">
         <v>1398</v>
-      </c>
-      <c r="W231" t="s">
-        <v>1399</v>
       </c>
       <c r="X231"/>
       <c r="Y231"/>
@@ -16925,7 +16935,7 @@
     </row>
     <row r="232" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="str">
-        <f>CONCATENATE(B232, " ", D232)</f>
+        <f t="shared" si="3"/>
         <v>Robin Mitchell</v>
       </c>
       <c r="B232" s="10" t="s">
@@ -16952,7 +16962,7 @@
         <v>705</v>
       </c>
       <c r="M232" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="N232" s="10"/>
       <c r="O232" s="10"/>
@@ -16967,12 +16977,12 @@
       <c r="X232" s="10"/>
       <c r="Y232" s="10"/>
       <c r="Z232" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="str">
-        <f>CONCATENATE(B233, " ", D233)</f>
+        <f t="shared" si="3"/>
         <v>Kate Molinsky</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -17029,7 +17039,7 @@
     </row>
     <row r="234" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="str">
-        <f>CONCATENATE(B234, " ", D234)</f>
+        <f t="shared" si="3"/>
         <v>Ellen Mormino</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -17074,7 +17084,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="str">
-        <f>CONCATENATE(B235, " ", D235)</f>
+        <f t="shared" si="3"/>
         <v>Leslie Moroz</v>
       </c>
       <c r="B235" t="s">
@@ -17099,13 +17109,13 @@
         <v>263</v>
       </c>
       <c r="P235" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="Q235" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="R235" s="4" t="s">
         <v>1403</v>
-      </c>
-      <c r="R235" s="4" t="s">
-        <v>1404</v>
       </c>
       <c r="S235" s="4" t="s">
         <v>1262</v>
@@ -17116,12 +17126,12 @@
         <v>147</v>
       </c>
       <c r="W235" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="str">
-        <f>CONCATENATE(B236, " ", D236)</f>
+        <f t="shared" si="3"/>
         <v>Kelly Morrison</v>
       </c>
       <c r="B236" t="s">
@@ -17146,10 +17156,10 @@
         <v>263</v>
       </c>
       <c r="Q236" t="s">
+        <v>1405</v>
+      </c>
+      <c r="R236" t="s">
         <v>1406</v>
-      </c>
-      <c r="R236" t="s">
-        <v>1407</v>
       </c>
       <c r="S236" t="s">
         <v>841</v>
@@ -17158,12 +17168,12 @@
         <v>1191</v>
       </c>
       <c r="W236" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="237" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="str">
-        <f>CONCATENATE(B237, " ", D237)</f>
+        <f t="shared" si="3"/>
         <v>Tara Moss</v>
       </c>
       <c r="B237" t="s">
@@ -17173,7 +17183,7 @@
         <v>536</v>
       </c>
       <c r="D237" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E237">
         <v>2008</v>
@@ -17198,10 +17208,10 @@
         <v>945</v>
       </c>
       <c r="Q237" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="R237" s="4" t="s">
         <v>1583</v>
-      </c>
-      <c r="R237" s="4" t="s">
-        <v>1584</v>
       </c>
       <c r="S237" s="4" t="s">
         <v>411</v>
@@ -17212,7 +17222,7 @@
         <v>147</v>
       </c>
       <c r="W237" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="X237"/>
       <c r="Y237"/>
@@ -17220,11 +17230,11 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="str">
-        <f>CONCATENATE(B238, " ", D238)</f>
+        <f t="shared" si="3"/>
         <v>Katie Muldoon</v>
       </c>
       <c r="B238" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C238" t="s">
         <v>469</v>
@@ -17251,12 +17261,12 @@
         <v>155</v>
       </c>
       <c r="W238" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="str">
-        <f>CONCATENATE(B239, " ", D239)</f>
+        <f t="shared" si="3"/>
         <v>Beth Mullen</v>
       </c>
       <c r="B239" t="s">
@@ -17281,24 +17291,24 @@
         <v>268</v>
       </c>
       <c r="Q239" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="R239" t="s">
         <v>150</v>
       </c>
       <c r="S239" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="V239" t="s">
+        <v>1411</v>
+      </c>
+      <c r="W239" t="s">
         <v>1412</v>
-      </c>
-      <c r="W239" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="str">
-        <f>CONCATENATE(B240, " ", D240)</f>
+        <f t="shared" si="3"/>
         <v>Hannah Mullen</v>
       </c>
       <c r="B240" t="s">
@@ -17317,7 +17327,7 @@
         <v>2015</v>
       </c>
       <c r="L240" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M240" t="s">
         <v>269</v>
@@ -17326,13 +17336,13 @@
         <v>700</v>
       </c>
       <c r="Q240" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="R240" s="4" t="s">
         <v>395</v>
       </c>
       <c r="S240" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
@@ -17340,12 +17350,12 @@
         <v>151</v>
       </c>
       <c r="W240" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="str">
-        <f>CONCATENATE(B241, " ", D241)</f>
+        <f t="shared" si="3"/>
         <v>Julia Nagle</v>
       </c>
       <c r="B241" t="s">
@@ -17367,16 +17377,16 @@
         <v>543</v>
       </c>
       <c r="M241" t="s">
+        <v>1417</v>
+      </c>
+      <c r="P241" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="P241" s="4" t="s">
+      <c r="Q241" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R241" s="4" t="s">
         <v>1419</v>
-      </c>
-      <c r="Q241" s="4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="R241" s="4" t="s">
-        <v>1420</v>
       </c>
       <c r="S241" s="4" t="s">
         <v>1262</v>
@@ -17384,15 +17394,15 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
       <c r="V241" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W241" t="s">
         <v>1421</v>
-      </c>
-      <c r="W241" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="str">
-        <f>CONCATENATE(B242, " ", D242)</f>
+        <f t="shared" si="3"/>
         <v>Sarah Nelson</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -17447,7 +17457,7 @@
     </row>
     <row r="243" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="str">
-        <f>CONCATENATE(B243, " ", D243)</f>
+        <f t="shared" si="3"/>
         <v>Jacqueline Nesi</v>
       </c>
       <c r="B243" t="s">
@@ -17479,13 +17489,13 @@
       <c r="N243"/>
       <c r="O243"/>
       <c r="P243" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="Q243" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="Q243" s="4" t="s">
+      <c r="R243" s="4" t="s">
         <v>1431</v>
-      </c>
-      <c r="R243" s="4" t="s">
-        <v>1432</v>
       </c>
       <c r="S243" s="4" t="s">
         <v>887</v>
@@ -17496,7 +17506,7 @@
         <v>1021</v>
       </c>
       <c r="W243" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="X243"/>
       <c r="Y243"/>
@@ -17504,7 +17514,7 @@
     </row>
     <row r="244" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="str">
-        <f>CONCATENATE(B244, " ", D244)</f>
+        <f t="shared" si="3"/>
         <v>Michelle Nesselbush</v>
       </c>
       <c r="B244" t="s">
@@ -17537,10 +17547,10 @@
       <c r="O244"/>
       <c r="P244" s="4"/>
       <c r="Q244" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="R244" s="4" t="s">
         <v>1434</v>
-      </c>
-      <c r="R244" s="4" t="s">
-        <v>1435</v>
       </c>
       <c r="S244" s="4" t="s">
         <v>141</v>
@@ -17551,7 +17561,7 @@
         <v>147</v>
       </c>
       <c r="W244" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="X244"/>
       <c r="Y244"/>
@@ -17559,7 +17569,7 @@
     </row>
     <row r="245" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="str">
-        <f>CONCATENATE(B245, " ", D245)</f>
+        <f t="shared" si="3"/>
         <v>Claire Newman</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -17586,7 +17596,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="str">
-        <f>CONCATENATE(B246, " ", D246)</f>
+        <f t="shared" si="3"/>
         <v>Ellen Newman</v>
       </c>
       <c r="B246" t="s">
@@ -17631,7 +17641,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="str">
-        <f>CONCATENATE(B247, " ", D247)</f>
+        <f t="shared" si="3"/>
         <v>Chelsey Newman</v>
       </c>
       <c r="B247" t="s">
@@ -17656,7 +17666,7 @@
         <v>268</v>
       </c>
       <c r="Q247" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="R247" s="4" t="s">
         <v>218</v>
@@ -17670,12 +17680,12 @@
         <v>219</v>
       </c>
       <c r="W247" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="str">
-        <f>CONCATENATE(B248, " ", D248)</f>
+        <f t="shared" si="3"/>
         <v>Alexis Nicolia</v>
       </c>
       <c r="B248" t="s">
@@ -17700,7 +17710,7 @@
         <v>266</v>
       </c>
       <c r="Q248" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="R248" s="4" t="s">
         <v>731</v>
@@ -17714,12 +17724,12 @@
         <v>151</v>
       </c>
       <c r="W248" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="str">
-        <f>CONCATENATE(B249, " ", D249)</f>
+        <f t="shared" si="3"/>
         <v>Lisa Nitze</v>
       </c>
       <c r="B249" t="s">
@@ -17766,14 +17776,14 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="str">
-        <f>CONCATENATE(B250, " ", D250)</f>
+        <f t="shared" si="3"/>
         <v>Kate Nowak</v>
       </c>
       <c r="B250" t="s">
         <v>1353</v>
       </c>
       <c r="C250" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D250" t="s">
         <v>481</v>
@@ -17794,10 +17804,10 @@
         <v>1012</v>
       </c>
       <c r="Q250" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R250" s="4" t="s">
         <v>1449</v>
-      </c>
-      <c r="R250" s="4" t="s">
-        <v>1450</v>
       </c>
       <c r="S250" s="4" t="s">
         <v>900</v>
@@ -17808,22 +17818,22 @@
         <v>1214</v>
       </c>
       <c r="W250" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="str">
-        <f>CONCATENATE(B251, " ", D251)</f>
+        <f t="shared" si="3"/>
         <v>Ellen O'Neill</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E251" s="2">
         <v>1985</v>
@@ -17848,10 +17858,10 @@
         <v>885</v>
       </c>
       <c r="Q251" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R251" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="R251" s="2" t="s">
-        <v>1454</v>
       </c>
       <c r="S251" s="2" t="s">
         <v>746</v>
@@ -17859,18 +17869,18 @@
       <c r="T251" s="2"/>
       <c r="U251" s="2"/>
       <c r="V251" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="W251" s="2"/>
       <c r="X251" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="str">
-        <f>CONCATENATE(B252, " ", D252)</f>
+        <f t="shared" si="3"/>
         <v>Anne Oppenlander</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -17913,7 +17923,7 @@
     </row>
     <row r="253" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="str">
-        <f>CONCATENATE(B253, " ", D253)</f>
+        <f t="shared" si="3"/>
         <v>Casey Owens</v>
       </c>
       <c r="B253" t="s">
@@ -17946,10 +17956,10 @@
       <c r="O253"/>
       <c r="P253" s="4"/>
       <c r="Q253" t="s">
+        <v>1459</v>
+      </c>
+      <c r="R253" s="4" t="s">
         <v>1460</v>
-      </c>
-      <c r="R253" s="4" t="s">
-        <v>1461</v>
       </c>
       <c r="S253" s="4" t="s">
         <v>1025</v>
@@ -17960,7 +17970,7 @@
         <v>729</v>
       </c>
       <c r="W253" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="X253"/>
       <c r="Y253"/>
@@ -17968,7 +17978,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="str">
-        <f>CONCATENATE(B254, " ", D254)</f>
+        <f t="shared" si="3"/>
         <v>Cristina Paglinauan</v>
       </c>
       <c r="B254" t="s">
@@ -17993,13 +18003,13 @@
         <v>269</v>
       </c>
       <c r="P254" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Q254" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="Q254" s="4" t="s">
+      <c r="R254" s="4" t="s">
         <v>1475</v>
-      </c>
-      <c r="R254" s="4" t="s">
-        <v>1476</v>
       </c>
       <c r="S254" s="4" t="s">
         <v>746</v>
@@ -18010,12 +18020,12 @@
         <v>219</v>
       </c>
       <c r="W254" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="str">
-        <f>CONCATENATE(B255, " ", D255)</f>
+        <f t="shared" si="3"/>
         <v>Tatiana Papanicolaou</v>
       </c>
       <c r="B255" s="10" t="s">
@@ -18053,12 +18063,12 @@
       <c r="X255" s="10"/>
       <c r="Y255" s="10"/>
       <c r="Z255" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="str">
-        <f>CONCATENATE(B256, " ", D256)</f>
+        <f t="shared" si="3"/>
         <v>Clare Parker</v>
       </c>
       <c r="B256" t="s">
@@ -18086,10 +18096,10 @@
         <v>861</v>
       </c>
       <c r="Q256" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="R256" s="4" t="s">
         <v>1483</v>
-      </c>
-      <c r="R256" s="4" t="s">
-        <v>1484</v>
       </c>
       <c r="S256" s="4" t="s">
         <v>887</v>
@@ -18100,12 +18110,12 @@
         <v>151</v>
       </c>
       <c r="W256" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="257" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="str">
-        <f>CONCATENATE(B257, " ", D257)</f>
+        <f t="shared" si="3"/>
         <v>George Parker</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -18140,29 +18150,29 @@
         <v>775</v>
       </c>
       <c r="Q257" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="R257" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="R257" s="2" t="s">
+      <c r="S257" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="S257" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="T257" s="2"/>
       <c r="U257" s="2"/>
       <c r="V257" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="W257" s="2"/>
       <c r="X257" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="str">
-        <f>CONCATENATE(B258, " ", D258)</f>
+        <f t="shared" ref="A258:A321" si="4">CONCATENATE(B258, " ", D258)</f>
         <v>Kyle Patterson</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -18194,7 +18204,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
       <c r="P258" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
@@ -18209,7 +18219,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="str">
-        <f>CONCATENATE(B259, " ", D259)</f>
+        <f t="shared" si="4"/>
         <v>Silvana Penava</v>
       </c>
       <c r="B259" t="s">
@@ -18234,29 +18244,29 @@
         <v>269</v>
       </c>
       <c r="P259" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Q259" s="4" t="s">
         <v>1500</v>
-      </c>
-      <c r="Q259" s="4" t="s">
-        <v>1501</v>
       </c>
       <c r="R259" s="4" t="s">
         <v>703</v>
       </c>
       <c r="S259" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
       <c r="V259" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="W259" t="s">
         <v>1503</v>
-      </c>
-      <c r="W259" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B260" t="s">
         <v>53</v>
@@ -18265,7 +18275,7 @@
         <v>320</v>
       </c>
       <c r="D260" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E260">
         <v>1981</v>
@@ -18300,7 +18310,7 @@
     </row>
     <row r="261" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="str">
-        <f>CONCATENATE(B261, " ", D261)</f>
+        <f t="shared" ref="A261:A292" si="5">CONCATENATE(B261, " ", D261)</f>
         <v>Kathryn Perkinson</v>
       </c>
       <c r="B261" t="s">
@@ -18310,7 +18320,7 @@
         <v>530</v>
       </c>
       <c r="D261" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E261">
         <v>2012</v>
@@ -18333,21 +18343,21 @@
       <c r="O261"/>
       <c r="P261" s="4"/>
       <c r="Q261" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="R261" s="4" t="s">
         <v>703</v>
       </c>
       <c r="S261" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="T261"/>
       <c r="U261"/>
       <c r="V261" t="s">
+        <v>1569</v>
+      </c>
+      <c r="W261" t="s">
         <v>1570</v>
-      </c>
-      <c r="W261" t="s">
-        <v>1571</v>
       </c>
       <c r="X261"/>
       <c r="Y261"/>
@@ -18355,7 +18365,7 @@
     </row>
     <row r="262" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="str">
-        <f>CONCATENATE(B262, " ", D262)</f>
+        <f t="shared" si="5"/>
         <v>Julie Perron</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -18382,7 +18392,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="str">
-        <f>CONCATENATE(B263, " ", D263)</f>
+        <f t="shared" si="5"/>
         <v>Tyler Petropulos</v>
       </c>
       <c r="B263" t="s">
@@ -18407,13 +18417,13 @@
         <v>269</v>
       </c>
       <c r="Q263" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="R263" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="R263" s="4" t="s">
+      <c r="S263" s="4" t="s">
         <v>1506</v>
-      </c>
-      <c r="S263" s="4" t="s">
-        <v>1507</v>
       </c>
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
@@ -18421,16 +18431,16 @@
         <v>151</v>
       </c>
       <c r="W263" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="str">
-        <f>CONCATENATE(B264, " ", D264)</f>
+        <f t="shared" si="5"/>
         <v>Lili Pew</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>503</v>
@@ -18459,29 +18469,29 @@
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="R264" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="R264" s="2" t="s">
+      <c r="S264" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="S264" s="2" t="s">
-        <v>1512</v>
       </c>
       <c r="T264" s="2"/>
       <c r="U264" s="2"/>
       <c r="V264" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W264" s="2"/>
       <c r="X264" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
     <row r="265" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="str">
-        <f>CONCATENATE(B265, " ", D265)</f>
+        <f t="shared" si="5"/>
         <v>Mariah Pewarski</v>
       </c>
       <c r="B265" t="s">
@@ -18513,13 +18523,13 @@
       <c r="N265"/>
       <c r="O265"/>
       <c r="P265" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q265" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="Q265" s="4" t="s">
+      <c r="R265" s="4" t="s">
         <v>1516</v>
-      </c>
-      <c r="R265" s="4" t="s">
-        <v>1517</v>
       </c>
       <c r="S265" s="4" t="s">
         <v>1262</v>
@@ -18530,7 +18540,7 @@
         <v>147</v>
       </c>
       <c r="W265" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="X265"/>
       <c r="Y265"/>
@@ -18538,7 +18548,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="str">
-        <f>CONCATENATE(B266, " ", D266)</f>
+        <f t="shared" si="5"/>
         <v>Elizabeth Phillips</v>
       </c>
       <c r="B266" s="4" t="s">
@@ -18548,7 +18558,7 @@
         <v>509</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E266" s="4">
         <v>2010</v>
@@ -18570,13 +18580,13 @@
       <c r="N266" s="4"/>
       <c r="O266" s="4"/>
       <c r="P266" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="Q266" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="Q266" s="4" t="s">
+      <c r="R266" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="R266" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="S266" s="4" t="s">
         <v>411</v>
@@ -18587,7 +18597,7 @@
         <v>729</v>
       </c>
       <c r="W266" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
@@ -18595,7 +18605,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="str">
-        <f>CONCATENATE(B267, " ", D267)</f>
+        <f t="shared" si="5"/>
         <v>Jamie Phinney</v>
       </c>
       <c r="B267" t="s">
@@ -18642,7 +18652,7 @@
     </row>
     <row r="268" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="str">
-        <f>CONCATENATE(B268, " ", D268)</f>
+        <f t="shared" si="5"/>
         <v>Rebecca Plimpton</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -18652,7 +18662,7 @@
         <v>581</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E268" s="2">
         <v>1998</v>
@@ -18687,7 +18697,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="str">
-        <f>CONCATENATE(B269, " ", D269)</f>
+        <f t="shared" si="5"/>
         <v>Morgan Powell</v>
       </c>
       <c r="B269" t="s">
@@ -18706,22 +18716,22 @@
         <v>2014</v>
       </c>
       <c r="L269" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M269" t="s">
         <v>672</v>
       </c>
       <c r="P269" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q269" s="4" t="s">
         <v>1520</v>
       </c>
-      <c r="Q269" s="4" t="s">
+      <c r="R269" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="R269" s="4" t="s">
+      <c r="S269" s="4" t="s">
         <v>1522</v>
-      </c>
-      <c r="S269" s="4" t="s">
-        <v>1523</v>
       </c>
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
@@ -18729,22 +18739,22 @@
         <v>664</v>
       </c>
       <c r="W269" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="270" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="str">
-        <f>CONCATENATE(B270, " ", D270)</f>
+        <f t="shared" si="5"/>
         <v>Meggie Powers</v>
       </c>
       <c r="B270" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C270" t="s">
         <v>575</v>
       </c>
       <c r="D270" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E270">
         <v>2004</v>
@@ -18767,10 +18777,10 @@
       <c r="O270"/>
       <c r="P270" s="4"/>
       <c r="Q270" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="R270" s="4" t="s">
         <v>1679</v>
-      </c>
-      <c r="R270" s="4" t="s">
-        <v>1680</v>
       </c>
       <c r="S270" s="4" t="s">
         <v>25</v>
@@ -18778,10 +18788,10 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
       <c r="V270" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="W270" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="X270"/>
       <c r="Y270"/>
@@ -18789,7 +18799,7 @@
     </row>
     <row r="271" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="str">
-        <f>CONCATENATE(B271, " ", D271)</f>
+        <f t="shared" si="5"/>
         <v>Tessa Queri</v>
       </c>
       <c r="B271" s="4" t="s">
@@ -18823,7 +18833,7 @@
       <c r="P271" s="4"/>
       <c r="Q271" s="4"/>
       <c r="R271" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S271" s="4"/>
       <c r="T271" s="4"/>
@@ -18832,7 +18842,7 @@
         <v>1143</v>
       </c>
       <c r="W271" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
@@ -18840,7 +18850,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="str">
-        <f>CONCATENATE(B272, " ", D272)</f>
+        <f t="shared" si="5"/>
         <v>Shelby Raglan</v>
       </c>
       <c r="B272" s="4" t="s">
@@ -18872,16 +18882,16 @@
       <c r="N272" s="4"/>
       <c r="O272" s="4"/>
       <c r="P272" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Q272" s="4" t="s">
         <v>1534</v>
       </c>
-      <c r="Q272" s="4" t="s">
+      <c r="R272" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="R272" s="4" t="s">
+      <c r="S272" s="4" t="s">
         <v>1536</v>
-      </c>
-      <c r="S272" s="4" t="s">
-        <v>1537</v>
       </c>
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
@@ -18889,7 +18899,7 @@
         <v>155</v>
       </c>
       <c r="W272" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="X272" s="4"/>
       <c r="Y272" s="4"/>
@@ -18897,7 +18907,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="str">
-        <f>CONCATENATE(B273, " ", D273)</f>
+        <f t="shared" si="5"/>
         <v>Cameron Rawson</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -18930,16 +18940,16 @@
       <c r="O273" s="4"/>
       <c r="Q273" s="4"/>
       <c r="R273" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S273" s="4"/>
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
       <c r="V273" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="W273" s="4" t="s">
         <v>1539</v>
-      </c>
-      <c r="W273" s="4" t="s">
-        <v>1540</v>
       </c>
       <c r="X273" s="4"/>
       <c r="Y273" s="4"/>
@@ -18947,7 +18957,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="str">
-        <f>CONCATENATE(B274, " ", D274)</f>
+        <f t="shared" si="5"/>
         <v>Jeanne Rayner</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -18957,7 +18967,7 @@
         <v>506</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E274" s="2">
         <v>1983</v>
@@ -18992,7 +19002,7 @@
     </row>
     <row r="275" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="str">
-        <f>CONCATENATE(B275, " ", D275)</f>
+        <f t="shared" si="5"/>
         <v>Elizabeth Reynolds</v>
       </c>
       <c r="B275" t="s">
@@ -19053,7 +19063,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="str">
-        <f>CONCATENATE(B276, " ", D276)</f>
+        <f t="shared" si="5"/>
         <v>Lauren Ripmaster</v>
       </c>
       <c r="B276" t="s">
@@ -19097,7 +19107,7 @@
     </row>
     <row r="277" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="str">
-        <f>CONCATENATE(B277, " ", D277)</f>
+        <f t="shared" si="5"/>
         <v>Gretchen Roethle</v>
       </c>
       <c r="B277" s="4" t="s">
@@ -19107,7 +19117,7 @@
         <v>510</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E277" s="4">
         <v>2002</v>
@@ -19130,21 +19140,21 @@
       <c r="O277" s="4"/>
       <c r="P277" s="4"/>
       <c r="Q277" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R277" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="R277" s="4" t="s">
-        <v>1532</v>
-      </c>
       <c r="S277" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
       <c r="V277" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="W277" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="X277" s="4"/>
       <c r="Y277" s="4"/>
@@ -19152,7 +19162,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="str">
-        <f>CONCATENATE(B278, " ", D278)</f>
+        <f t="shared" si="5"/>
         <v>Holly Rogers</v>
       </c>
       <c r="B278" s="4" t="s">
@@ -19184,13 +19194,13 @@
       <c r="N278" s="4"/>
       <c r="O278" s="4"/>
       <c r="P278" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q278" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="Q278" s="4" t="s">
+      <c r="R278" s="4" t="s">
         <v>1547</v>
-      </c>
-      <c r="R278" s="4" t="s">
-        <v>1548</v>
       </c>
       <c r="S278" s="2" t="s">
         <v>737</v>
@@ -19201,7 +19211,7 @@
         <v>1204</v>
       </c>
       <c r="W278" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="X278" s="4"/>
       <c r="Y278" s="4"/>
@@ -19209,7 +19219,7 @@
     </row>
     <row r="279" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="str">
-        <f>CONCATENATE(B279, " ", D279)</f>
+        <f t="shared" si="5"/>
         <v>Marisa Romeo</v>
       </c>
       <c r="B279" t="s">
@@ -19241,13 +19251,13 @@
       <c r="N279"/>
       <c r="O279"/>
       <c r="P279" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q279" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="Q279" s="4" t="s">
+      <c r="R279" s="4" t="s">
         <v>1551</v>
-      </c>
-      <c r="R279" s="4" t="s">
-        <v>1552</v>
       </c>
       <c r="S279" s="4" t="s">
         <v>25</v>
@@ -19256,7 +19266,7 @@
         <v>151</v>
       </c>
       <c r="W279" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="X279"/>
       <c r="Y279"/>
@@ -19264,7 +19274,7 @@
     </row>
     <row r="280" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="str">
-        <f>CONCATENATE(B280, " ", D280)</f>
+        <f t="shared" si="5"/>
         <v>Allison Ross</v>
       </c>
       <c r="B280" t="s">
@@ -19296,10 +19306,10 @@
       <c r="N280"/>
       <c r="O280"/>
       <c r="Q280" t="s">
+        <v>1553</v>
+      </c>
+      <c r="R280" t="s">
         <v>1554</v>
-      </c>
-      <c r="R280" t="s">
-        <v>1555</v>
       </c>
       <c r="S280" t="s">
         <v>25</v>
@@ -19310,7 +19320,7 @@
         <v>147</v>
       </c>
       <c r="W280" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="X280"/>
       <c r="Y280"/>
@@ -19318,7 +19328,7 @@
     </row>
     <row r="281" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="str">
-        <f>CONCATENATE(B281, " ", D281)</f>
+        <f t="shared" si="5"/>
         <v>Grace Rotondo</v>
       </c>
       <c r="B281" t="s">
@@ -19353,13 +19363,13 @@
       <c r="O281"/>
       <c r="Q281"/>
       <c r="R281" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="V281" t="s">
         <v>729</v>
       </c>
       <c r="W281" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="X281"/>
       <c r="Y281"/>
@@ -19367,7 +19377,7 @@
     </row>
     <row r="282" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="str">
-        <f>CONCATENATE(B282, " ", D282)</f>
+        <f t="shared" si="5"/>
         <v>Claire Rushin</v>
       </c>
       <c r="B282" t="s">
@@ -19399,13 +19409,13 @@
       <c r="N282"/>
       <c r="O282"/>
       <c r="Q282" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="R282" t="s">
+        <v>1556</v>
+      </c>
+      <c r="S282" t="s">
         <v>1557</v>
-      </c>
-      <c r="S282" t="s">
-        <v>1558</v>
       </c>
       <c r="T282"/>
       <c r="U282"/>
@@ -19413,7 +19423,7 @@
         <v>664</v>
       </c>
       <c r="W282" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="X282"/>
       <c r="Y282"/>
@@ -19421,7 +19431,7 @@
     </row>
     <row r="283" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="str">
-        <f>CONCATENATE(B283, " ", D283)</f>
+        <f t="shared" si="5"/>
         <v>Kyleigh Russ</v>
       </c>
       <c r="B283" t="s">
@@ -19431,7 +19441,7 @@
         <v>388</v>
       </c>
       <c r="D283" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E283">
         <v>2014</v>
@@ -19476,7 +19486,7 @@
     </row>
     <row r="284" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="str">
-        <f>CONCATENATE(B284, " ", D284)</f>
+        <f t="shared" si="5"/>
         <v>Emily Ryan</v>
       </c>
       <c r="B284" t="s">
@@ -19503,14 +19513,14 @@
         <v>543</v>
       </c>
       <c r="M284" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="N284"/>
       <c r="O284"/>
       <c r="P284" s="4"/>
       <c r="Q284" s="4"/>
       <c r="R284" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S284"/>
       <c r="T284"/>
@@ -19519,7 +19529,7 @@
         <v>151</v>
       </c>
       <c r="W284" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="X284"/>
       <c r="Y284"/>
@@ -19527,7 +19537,7 @@
     </row>
     <row r="285" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="str">
-        <f>CONCATENATE(B285, " ", D285)</f>
+        <f t="shared" si="5"/>
         <v>Christine Sailer</v>
       </c>
       <c r="B285" t="s">
@@ -19559,13 +19569,13 @@
       <c r="N285"/>
       <c r="O285"/>
       <c r="P285" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="Q285" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="R285" s="4" t="s">
         <v>1561</v>
-      </c>
-      <c r="R285" s="4" t="s">
-        <v>1562</v>
       </c>
       <c r="S285" t="s">
         <v>929</v>
@@ -19573,18 +19583,18 @@
       <c r="T285"/>
       <c r="U285"/>
       <c r="V285" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="W285"/>
       <c r="X285" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="Y285"/>
       <c r="Z285"/>
     </row>
     <row r="286" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="str">
-        <f>CONCATENATE(B286, " ", D286)</f>
+        <f t="shared" si="5"/>
         <v>Elizabeth Samet</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -19616,13 +19626,13 @@
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
       <c r="P286" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="Q286" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="Q286" s="2" t="s">
+      <c r="R286" s="2" t="s">
         <v>1573</v>
-      </c>
-      <c r="R286" s="2" t="s">
-        <v>1574</v>
       </c>
       <c r="S286" s="2" t="s">
         <v>887</v>
@@ -19630,18 +19640,18 @@
       <c r="T286" s="2"/>
       <c r="U286" s="2"/>
       <c r="V286" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="W286" s="2"/>
       <c r="X286" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="str">
-        <f>CONCATENATE(B287, " ", D287)</f>
+        <f t="shared" si="5"/>
         <v>Kimberly Santamaria</v>
       </c>
       <c r="B287" t="s">
@@ -19651,7 +19661,7 @@
         <v>553</v>
       </c>
       <c r="D287" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E287">
         <v>1994</v>
@@ -19666,18 +19676,18 @@
         <v>269</v>
       </c>
       <c r="P287" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="V287" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="W287" t="s">
         <v>1613</v>
-      </c>
-      <c r="V287" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="W287" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="str">
-        <f>CONCATENATE(B288, " ", D288)</f>
+        <f t="shared" si="5"/>
         <v>Sarah Sauvayre</v>
       </c>
       <c r="B288" t="s">
@@ -19719,7 +19729,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="str">
-        <f>CONCATENATE(B289, " ", D289)</f>
+        <f t="shared" si="5"/>
         <v>Rosemary Scalise</v>
       </c>
       <c r="B289" t="s">
@@ -19741,16 +19751,16 @@
         <v>540</v>
       </c>
       <c r="M289" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q289" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="Q289" s="4" t="s">
+      <c r="R289" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="R289" s="4" t="s">
+      <c r="S289" s="4" t="s">
         <v>1579</v>
-      </c>
-      <c r="S289" s="4" t="s">
-        <v>1580</v>
       </c>
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
@@ -19758,12 +19768,12 @@
         <v>151</v>
       </c>
       <c r="W289" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="str">
-        <f>CONCATENATE(B290, " ", D290)</f>
+        <f t="shared" si="5"/>
         <v>Katharine Schmitt</v>
       </c>
       <c r="B290" t="s">
@@ -19808,7 +19818,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="str">
-        <f>CONCATENATE(B291, " ", D291)</f>
+        <f t="shared" si="5"/>
         <v>Elizabeth Schoyer</v>
       </c>
       <c r="B291" t="s">
@@ -19830,16 +19840,16 @@
         <v>691</v>
       </c>
       <c r="P291" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q291" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="Q291" s="4" t="s">
+      <c r="R291" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="R291" s="4" t="s">
+      <c r="S291" s="4" t="s">
         <v>1588</v>
-      </c>
-      <c r="S291" s="4" t="s">
-        <v>1589</v>
       </c>
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
@@ -19847,12 +19857,12 @@
         <v>188</v>
       </c>
       <c r="W291" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="str">
-        <f>CONCATENATE(B292, " ", D292)</f>
+        <f t="shared" si="5"/>
         <v>Kate Schutt</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -19885,10 +19895,10 @@
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="R292" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="S292" s="2" t="s">
         <v>1325</v>
@@ -19900,18 +19910,18 @@
       </c>
       <c r="W292" s="2"/>
       <c r="X292" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="str">
-        <f>CONCATENATE(B293, " ", D293)</f>
+        <f t="shared" ref="A293:A324" si="6">CONCATENATE(B293, " ", D293)</f>
         <v>Jill Scyocurka</v>
       </c>
       <c r="B293" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C293" t="s">
         <v>548</v>
@@ -19932,10 +19942,10 @@
         <v>266</v>
       </c>
       <c r="Q293" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="R293" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="S293" s="4" t="s">
         <v>25</v>
@@ -19946,12 +19956,12 @@
         <v>151</v>
       </c>
       <c r="W293" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="294" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="str">
-        <f>CONCATENATE(B294, " ", D294)</f>
+        <f t="shared" si="6"/>
         <v>Ellen Seidler</v>
       </c>
       <c r="B294" t="s">
@@ -19983,24 +19993,24 @@
       <c r="N294"/>
       <c r="O294"/>
       <c r="P294" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q294" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="Q294" s="4" t="s">
+      <c r="R294" s="4" t="s">
         <v>1617</v>
       </c>
-      <c r="R294" s="4" t="s">
+      <c r="S294" s="4" t="s">
         <v>1618</v>
-      </c>
-      <c r="S294" s="4" t="s">
-        <v>1619</v>
       </c>
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
       <c r="V294" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="W294" t="s">
         <v>1620</v>
-      </c>
-      <c r="W294" t="s">
-        <v>1621</v>
       </c>
       <c r="X294"/>
       <c r="Y294"/>
@@ -20008,7 +20018,7 @@
     </row>
     <row r="295" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="str">
-        <f>CONCATENATE(B295, " ", D295)</f>
+        <f t="shared" si="6"/>
         <v>Sarah Sewall</v>
       </c>
       <c r="B295" t="s">
@@ -20040,16 +20050,16 @@
       <c r="N295"/>
       <c r="O295"/>
       <c r="P295" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="Q295" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="R295" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="Q295" s="4" t="s">
-        <v>1828</v>
-      </c>
-      <c r="R295" s="4" t="s">
+      <c r="S295" s="4" t="s">
         <v>1626</v>
-      </c>
-      <c r="S295" s="4" t="s">
-        <v>1627</v>
       </c>
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
@@ -20057,7 +20067,7 @@
         <v>729</v>
       </c>
       <c r="W295" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="X295"/>
       <c r="Y295"/>
@@ -20065,17 +20075,17 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="str">
-        <f>CONCATENATE(B296, " ", D296)</f>
+        <f t="shared" si="6"/>
         <v>Beatrice Shu</v>
       </c>
       <c r="B296" t="s">
         <v>556</v>
       </c>
       <c r="C296" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D296" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E296">
         <v>2001</v>
@@ -20090,7 +20100,7 @@
         <v>815</v>
       </c>
       <c r="P296" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="Q296" s="4"/>
       <c r="R296" s="4" t="s">
@@ -20102,15 +20112,15 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
       <c r="V296" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="X296" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="str">
-        <f>CONCATENATE(B297, " ", D297)</f>
+        <f t="shared" si="6"/>
         <v>Carrie Shumway</v>
       </c>
       <c r="B297" t="s">
@@ -20135,10 +20145,10 @@
         <v>266</v>
       </c>
       <c r="P297" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q297" s="4" t="s">
         <v>1604</v>
-      </c>
-      <c r="Q297" s="4" t="s">
-        <v>1605</v>
       </c>
       <c r="R297" s="4" t="s">
         <v>222</v>
@@ -20152,12 +20162,12 @@
         <v>147</v>
       </c>
       <c r="W297" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="str">
-        <f>CONCATENATE(B298, " ", D298)</f>
+        <f t="shared" si="6"/>
         <v>Madeline Silverman</v>
       </c>
       <c r="B298" t="s">
@@ -20182,10 +20192,10 @@
         <v>269</v>
       </c>
       <c r="Q298" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="R298" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="S298" s="4" t="s">
         <v>141</v>
@@ -20196,12 +20206,12 @@
         <v>729</v>
       </c>
       <c r="W298" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="str">
-        <f>CONCATENATE(B299, " ", D299)</f>
+        <f t="shared" si="6"/>
         <v>Caroline Simmons</v>
       </c>
       <c r="B299" t="s">
@@ -20226,13 +20236,13 @@
         <v>269</v>
       </c>
       <c r="P299" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="Q299" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="R299" s="4" t="s">
         <v>1636</v>
-      </c>
-      <c r="R299" s="4" t="s">
-        <v>1637</v>
       </c>
       <c r="S299" s="4" t="s">
         <v>1025</v>
@@ -20240,15 +20250,15 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
       <c r="V299" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="W299" t="s">
         <v>1638</v>
-      </c>
-      <c r="W299" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="300" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="str">
-        <f>CONCATENATE(B300, " ", D300)</f>
+        <f t="shared" si="6"/>
         <v>Sara Simonds</v>
       </c>
       <c r="B300" t="s">
@@ -20258,7 +20268,7 @@
         <v>480</v>
       </c>
       <c r="D300" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E300">
         <v>1996</v>
@@ -20283,13 +20293,13 @@
         <v>1012</v>
       </c>
       <c r="Q300" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="R300" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="R300" s="4" t="s">
+      <c r="S300" s="4" t="s">
         <v>1445</v>
-      </c>
-      <c r="S300" s="4" t="s">
-        <v>1446</v>
       </c>
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
@@ -20297,7 +20307,7 @@
         <v>151</v>
       </c>
       <c r="W300" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="X300"/>
       <c r="Y300"/>
@@ -20305,7 +20315,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="str">
-        <f>CONCATENATE(B301, " ", D301)</f>
+        <f t="shared" si="6"/>
         <v>Julia Smail</v>
       </c>
       <c r="B301" t="s">
@@ -20341,7 +20351,7 @@
     </row>
     <row r="302" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="str">
-        <f>CONCATENATE(B302, " ", D302)</f>
+        <f t="shared" si="6"/>
         <v>Denise Smith</v>
       </c>
       <c r="B302" t="s">
@@ -20398,7 +20408,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="str">
-        <f>CONCATENATE(B303, " ", D303)</f>
+        <f t="shared" si="6"/>
         <v>Penelope Smith</v>
       </c>
       <c r="B303" t="s">
@@ -20423,26 +20433,26 @@
         <v>266</v>
       </c>
       <c r="Q303" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R303" s="4" t="s">
         <v>1646</v>
       </c>
-      <c r="R303" s="4" t="s">
+      <c r="S303" s="4" t="s">
         <v>1647</v>
-      </c>
-      <c r="S303" s="4" t="s">
-        <v>1648</v>
       </c>
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
       <c r="V303" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="W303" t="s">
         <v>1649</v>
-      </c>
-      <c r="W303" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="str">
-        <f>CONCATENATE(B304, " ", D304)</f>
+        <f t="shared" si="6"/>
         <v>Rebekah Sollitto</v>
       </c>
       <c r="B304" t="s">
@@ -20452,7 +20462,7 @@
         <v>625</v>
       </c>
       <c r="D304" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E304">
         <v>1999</v>
@@ -20467,13 +20477,13 @@
         <v>266</v>
       </c>
       <c r="P304" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="Q304" s="4" t="s">
         <v>1792</v>
       </c>
-      <c r="Q304" s="4" t="s">
+      <c r="R304" s="4" t="s">
         <v>1793</v>
-      </c>
-      <c r="R304" s="4" t="s">
-        <v>1794</v>
       </c>
       <c r="S304" s="4" t="s">
         <v>162</v>
@@ -20484,12 +20494,12 @@
         <v>147</v>
       </c>
       <c r="W304" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="str">
-        <f>CONCATENATE(B305, " ", D305)</f>
+        <f t="shared" si="6"/>
         <v>Chloe Soukas</v>
       </c>
       <c r="B305" t="s">
@@ -20514,13 +20524,13 @@
         <v>672</v>
       </c>
       <c r="P305" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="Q305" s="4" t="s">
         <v>1655</v>
       </c>
-      <c r="Q305" s="4" t="s">
-        <v>1656</v>
-      </c>
       <c r="R305" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="S305" s="4" t="s">
         <v>1262</v>
@@ -20528,25 +20538,25 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
       <c r="V305" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="W305" t="s">
         <v>1657</v>
-      </c>
-      <c r="W305" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="str">
-        <f>CONCATENATE(B306, " ", D306)</f>
+        <f t="shared" si="6"/>
         <v>Katie Southard</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>549</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E306" s="2">
         <v>2003</v>
@@ -20576,14 +20586,14 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
       <c r="X306" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
     <row r="307" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="str">
-        <f>CONCATENATE(B307, " ", D307)</f>
+        <f t="shared" si="6"/>
         <v>Catherine Sproul</v>
       </c>
       <c r="B307" t="s">
@@ -20615,24 +20625,24 @@
       <c r="N307"/>
       <c r="O307"/>
       <c r="P307" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="Q307" s="4" t="s">
         <v>1659</v>
       </c>
-      <c r="Q307" s="4" t="s">
+      <c r="R307" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="R307" s="4" t="s">
+      <c r="S307" s="4" t="s">
         <v>1661</v>
-      </c>
-      <c r="S307" s="4" t="s">
-        <v>1662</v>
       </c>
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
       <c r="V307" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="W307" t="s">
         <v>1663</v>
-      </c>
-      <c r="W307" t="s">
-        <v>1664</v>
       </c>
       <c r="X307"/>
       <c r="Y307"/>
@@ -20640,7 +20650,7 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="str">
-        <f>CONCATENATE(B308, " ", D308)</f>
+        <f t="shared" si="6"/>
         <v>Rachel Squier</v>
       </c>
       <c r="B308" t="s">
@@ -20650,7 +20660,7 @@
         <v>546</v>
       </c>
       <c r="D308" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E308">
         <v>1993</v>
@@ -20665,10 +20675,10 @@
         <v>272</v>
       </c>
       <c r="Q308" t="s">
+        <v>1591</v>
+      </c>
+      <c r="R308" s="4" t="s">
         <v>1592</v>
-      </c>
-      <c r="R308" s="4" t="s">
-        <v>1593</v>
       </c>
       <c r="S308" s="4" t="s">
         <v>1262</v>
@@ -20676,15 +20686,15 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
       <c r="V308" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="X308" t="s">
         <v>1594</v>
-      </c>
-      <c r="X308" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="str">
-        <f>CONCATENATE(B309, " ", D309)</f>
+        <f t="shared" si="6"/>
         <v>Susan St. Louis</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -20729,7 +20739,7 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="str">
-        <f>CONCATENATE(B310, " ", D310)</f>
+        <f t="shared" si="6"/>
         <v>Maggie Stebbins</v>
       </c>
       <c r="B310" t="s">
@@ -20771,7 +20781,7 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="str">
-        <f>CONCATENATE(B311, " ", D311)</f>
+        <f t="shared" si="6"/>
         <v>Lila Steinle</v>
       </c>
       <c r="B311" s="4" t="s">
@@ -20781,7 +20791,7 @@
         <v>520</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E311" s="4">
         <v>1991</v>
@@ -20803,10 +20813,10 @@
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
       <c r="Q311" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="R311" s="4" t="s">
         <v>1542</v>
-      </c>
-      <c r="R311" s="4" t="s">
-        <v>1543</v>
       </c>
       <c r="S311" s="4" t="s">
         <v>929</v>
@@ -20817,7 +20827,7 @@
         <v>188</v>
       </c>
       <c r="W311" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="X311" s="4"/>
       <c r="Y311" s="4"/>
@@ -20825,7 +20835,7 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="str">
-        <f>CONCATENATE(B312, " ", D312)</f>
+        <f t="shared" si="6"/>
         <v>Isabelle Stemberg</v>
       </c>
       <c r="B312" t="s">
@@ -20867,7 +20877,7 @@
     </row>
     <row r="313" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="str">
-        <f>CONCATENATE(B313, " ", D313)</f>
+        <f t="shared" si="6"/>
         <v>Tenley Stephenson</v>
       </c>
       <c r="B313" t="s">
@@ -20902,10 +20912,10 @@
         <v>666</v>
       </c>
       <c r="Q313" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="R313" s="4" t="s">
         <v>1671</v>
-      </c>
-      <c r="R313" s="4" t="s">
-        <v>1672</v>
       </c>
       <c r="S313" s="4" t="s">
         <v>746</v>
@@ -20916,7 +20926,7 @@
         <v>933</v>
       </c>
       <c r="W313" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="X313"/>
       <c r="Y313"/>
@@ -20924,7 +20934,7 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="str">
-        <f>CONCATENATE(B314, " ", D314)</f>
+        <f t="shared" si="6"/>
         <v>Catriona Stewart</v>
       </c>
       <c r="B314" t="s">
@@ -20952,26 +20962,26 @@
         <v>1151</v>
       </c>
       <c r="Q314" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="R314" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="S314" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
       <c r="V314" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="W314" t="s">
         <v>1675</v>
-      </c>
-      <c r="W314" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="str">
-        <f>CONCATENATE(B315, " ", D315)</f>
+        <f t="shared" si="6"/>
         <v>Kara Sullivan</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -21016,7 +21026,7 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="str">
-        <f>CONCATENATE(B316, " ", D316)</f>
+        <f t="shared" si="6"/>
         <v>Lea Sullivan</v>
       </c>
       <c r="B316" s="10" t="s">
@@ -21043,7 +21053,7 @@
         <v>698</v>
       </c>
       <c r="M316" s="10" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="N316" s="10"/>
       <c r="O316" s="10"/>
@@ -21058,12 +21068,12 @@
       <c r="X316" s="10"/>
       <c r="Y316" s="10"/>
       <c r="Z316" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="317" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="str">
-        <f>CONCATENATE(B317, " ", D317)</f>
+        <f t="shared" si="6"/>
         <v>Haley Surti</v>
       </c>
       <c r="B317" s="10" t="s">
@@ -21085,15 +21095,15 @@
         <v>541</v>
       </c>
       <c r="M317" s="10" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="Z317" s="10" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="318" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="str">
-        <f>CONCATENATE(B318, " ", D318)</f>
+        <f t="shared" si="6"/>
         <v>Catherine Tapsall</v>
       </c>
       <c r="B318" t="s">
@@ -21148,7 +21158,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="str">
-        <f>CONCATENATE(B319, " ", D319)</f>
+        <f t="shared" si="6"/>
         <v>Bambi Taylor</v>
       </c>
       <c r="B319" s="10" t="s">
@@ -21193,7 +21203,7 @@
     </row>
     <row r="320" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="str">
-        <f>CONCATENATE(B320, " ", D320)</f>
+        <f t="shared" si="6"/>
         <v>Danielle Tetreault</v>
       </c>
       <c r="B320" t="s">
@@ -21226,10 +21236,10 @@
       <c r="O320"/>
       <c r="P320" s="4"/>
       <c r="Q320" t="s">
+        <v>1685</v>
+      </c>
+      <c r="R320" t="s">
         <v>1686</v>
-      </c>
-      <c r="R320" t="s">
-        <v>1687</v>
       </c>
       <c r="S320" t="s">
         <v>929</v>
@@ -21237,10 +21247,10 @@
       <c r="T320"/>
       <c r="U320"/>
       <c r="V320" t="s">
+        <v>1687</v>
+      </c>
+      <c r="W320" t="s">
         <v>1688</v>
-      </c>
-      <c r="W320" t="s">
-        <v>1689</v>
       </c>
       <c r="X320"/>
       <c r="Y320"/>
@@ -21248,7 +21258,7 @@
     </row>
     <row r="321" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="str">
-        <f>CONCATENATE(B321, " ", D321)</f>
+        <f t="shared" si="6"/>
         <v>Alexandra Thaler</v>
       </c>
       <c r="B321" t="s">
@@ -21281,13 +21291,13 @@
       <c r="O321"/>
       <c r="P321" s="4"/>
       <c r="Q321" t="s">
+        <v>1689</v>
+      </c>
+      <c r="R321" t="s">
         <v>1690</v>
       </c>
-      <c r="R321" t="s">
+      <c r="S321" t="s">
         <v>1691</v>
-      </c>
-      <c r="S321" t="s">
-        <v>1692</v>
       </c>
       <c r="T321"/>
       <c r="U321"/>
@@ -21295,7 +21305,7 @@
         <v>754</v>
       </c>
       <c r="W321" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="X321"/>
       <c r="Y321"/>
@@ -21303,7 +21313,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="str">
-        <f>CONCATENATE(B322, " ", D322)</f>
+        <f t="shared" si="6"/>
         <v>Christine Thexton</v>
       </c>
       <c r="B322" t="s">
@@ -21328,7 +21338,7 @@
         <v>268</v>
       </c>
       <c r="Q322" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="R322" t="s">
         <v>663</v>
@@ -21340,12 +21350,12 @@
         <v>729</v>
       </c>
       <c r="W322" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="323" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="str">
-        <f>CONCATENATE(B323, " ", D323)</f>
+        <f t="shared" si="6"/>
         <v>Anne Thorndike</v>
       </c>
       <c r="B323" t="s">
@@ -21355,7 +21365,7 @@
         <v>473</v>
       </c>
       <c r="D323" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E323">
         <v>1988</v>
@@ -21377,16 +21387,16 @@
       <c r="N323"/>
       <c r="O323"/>
       <c r="P323" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Q323" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="R323" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="R323" s="4" t="s">
+      <c r="S323" s="4" t="s">
         <v>1427</v>
-      </c>
-      <c r="S323" s="4" t="s">
-        <v>1428</v>
       </c>
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
@@ -21395,14 +21405,14 @@
       </c>
       <c r="W323"/>
       <c r="X323" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Y323"/>
       <c r="Z323"/>
     </row>
     <row r="324" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="str">
-        <f>CONCATENATE(B324, " ", D324)</f>
+        <f t="shared" si="6"/>
         <v>Geneva Thorndike</v>
       </c>
       <c r="B324" t="s">
@@ -21412,7 +21422,7 @@
         <v>559</v>
       </c>
       <c r="D324" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E324">
         <v>1986</v>
@@ -21434,24 +21444,24 @@
       <c r="N324"/>
       <c r="O324"/>
       <c r="P324" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="Q324" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="R324" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="Q324" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="R324" s="4" t="s">
-        <v>1641</v>
-      </c>
       <c r="S324" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
       <c r="V324" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="W324" t="s">
         <v>1643</v>
-      </c>
-      <c r="W324" t="s">
-        <v>1644</v>
       </c>
       <c r="X324"/>
       <c r="Y324"/>
@@ -21459,7 +21469,7 @@
     </row>
     <row r="325" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="str">
-        <f>CONCATENATE(B325, " ", D325)</f>
+        <f t="shared" ref="A325:A356" si="7">CONCATENATE(B325, " ", D325)</f>
         <v>Natalie Thorne</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -21508,7 +21518,7 @@
     </row>
     <row r="326" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="str">
-        <f>CONCATENATE(B326, " ", D326)</f>
+        <f t="shared" si="7"/>
         <v>Kelly Todd</v>
       </c>
       <c r="B326" t="s">
@@ -21546,10 +21556,10 @@
       <c r="T326"/>
       <c r="U326"/>
       <c r="V326" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="W326" t="s">
         <v>1441</v>
-      </c>
-      <c r="W326" t="s">
-        <v>1442</v>
       </c>
       <c r="X326"/>
       <c r="Y326"/>
@@ -21557,7 +21567,7 @@
     </row>
     <row r="327" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="str">
-        <f>CONCATENATE(B327, " ", D327)</f>
+        <f t="shared" si="7"/>
         <v>Audrey Todd</v>
       </c>
       <c r="B327" t="s">
@@ -21590,10 +21600,10 @@
       <c r="O327"/>
       <c r="P327" s="4"/>
       <c r="Q327" t="s">
+        <v>1695</v>
+      </c>
+      <c r="R327" t="s">
         <v>1696</v>
-      </c>
-      <c r="R327" t="s">
-        <v>1697</v>
       </c>
       <c r="S327" t="s">
         <v>841</v>
@@ -21604,7 +21614,7 @@
         <v>219</v>
       </c>
       <c r="W327" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="X327"/>
       <c r="Y327"/>
@@ -21612,7 +21622,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="str">
-        <f>CONCATENATE(B328, " ", D328)</f>
+        <f t="shared" si="7"/>
         <v>Lauren Tomkinson</v>
       </c>
       <c r="B328" t="s">
@@ -21637,10 +21647,10 @@
         <v>672</v>
       </c>
       <c r="Q328" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="R328" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="S328" t="s">
         <v>900</v>
@@ -21649,12 +21659,12 @@
         <v>685</v>
       </c>
       <c r="W328" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="str">
-        <f>CONCATENATE(B329, " ", D329)</f>
+        <f t="shared" si="7"/>
         <v>Danielle Travers</v>
       </c>
       <c r="B329" t="s">
@@ -21679,24 +21689,24 @@
         <v>810</v>
       </c>
       <c r="Q329" t="s">
+        <v>1700</v>
+      </c>
+      <c r="R329" t="s">
         <v>1701</v>
       </c>
-      <c r="R329" t="s">
-        <v>1702</v>
-      </c>
       <c r="S329" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V329" t="s">
         <v>1131</v>
       </c>
       <c r="W329" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="str">
-        <f>CONCATENATE(B330, " ", D330)</f>
+        <f t="shared" si="7"/>
         <v>Emily Turilli</v>
       </c>
       <c r="B330" s="4" t="s">
@@ -21750,7 +21760,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="str">
-        <f>CONCATENATE(B331, " ", D331)</f>
+        <f t="shared" si="7"/>
         <v>Kathryn Tylander</v>
       </c>
       <c r="B331" t="s">
@@ -21775,13 +21785,13 @@
         <v>672</v>
       </c>
       <c r="P331" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q331" t="s">
         <v>1703</v>
       </c>
-      <c r="Q331" t="s">
+      <c r="R331" t="s">
         <v>1704</v>
-      </c>
-      <c r="R331" t="s">
-        <v>1705</v>
       </c>
       <c r="S331" t="s">
         <v>1262</v>
@@ -21790,12 +21800,12 @@
         <v>151</v>
       </c>
       <c r="W331" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="str">
-        <f>CONCATENATE(B332, " ", D332)</f>
+        <f t="shared" si="7"/>
         <v>Kasey Uhlenhuth</v>
       </c>
       <c r="B332" t="s">
@@ -21817,7 +21827,7 @@
         <v>543</v>
       </c>
       <c r="M332" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="P332" s="4" t="s">
         <v>1211</v>
@@ -21835,12 +21845,12 @@
         <v>1214</v>
       </c>
       <c r="W332" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="str">
-        <f>CONCATENATE(B333, " ", D333)</f>
+        <f t="shared" si="7"/>
         <v>Tara Uhler</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -21872,13 +21882,13 @@
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
       <c r="P333" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="Q333" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="Q333" s="2" t="s">
+      <c r="R333" s="2" t="s">
         <v>1709</v>
-      </c>
-      <c r="R333" s="2" t="s">
-        <v>1710</v>
       </c>
       <c r="S333" s="2" t="s">
         <v>887</v>
@@ -21890,14 +21900,14 @@
       </c>
       <c r="W333" s="2"/>
       <c r="X333" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="str">
-        <f>CONCATENATE(B334, " ", D334)</f>
+        <f t="shared" si="7"/>
         <v>Hannah Valencia</v>
       </c>
       <c r="B334" t="s">
@@ -21925,12 +21935,12 @@
         <v>151</v>
       </c>
       <c r="W334" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="str">
-        <f>CONCATENATE(B335, " ", D335)</f>
+        <f t="shared" si="7"/>
         <v>Jennifer VanderMeulen</v>
       </c>
       <c r="B335" t="s">
@@ -21955,34 +21965,34 @@
         <v>266</v>
       </c>
       <c r="Q335" t="s">
+        <v>1711</v>
+      </c>
+      <c r="R335" t="s">
         <v>1712</v>
       </c>
-      <c r="R335" t="s">
+      <c r="S335" t="s">
         <v>1713</v>
       </c>
-      <c r="S335" t="s">
+      <c r="V335" t="s">
         <v>1714</v>
       </c>
-      <c r="V335" t="s">
+      <c r="W335" t="s">
         <v>1715</v>
-      </c>
-      <c r="W335" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="336" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="str">
-        <f>CONCATENATE(B336, " ", D336)</f>
+        <f t="shared" si="7"/>
         <v>Maggie Vaughan</v>
       </c>
       <c r="B336" t="s">
         <v>1042</v>
       </c>
       <c r="C336" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D336" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E336">
         <v>1990</v>
@@ -22004,13 +22014,13 @@
       <c r="N336"/>
       <c r="O336"/>
       <c r="P336" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="Q336" s="4" t="s">
         <v>1719</v>
       </c>
-      <c r="Q336" s="4" t="s">
+      <c r="R336" s="4" t="s">
         <v>1720</v>
-      </c>
-      <c r="R336" s="4" t="s">
-        <v>1721</v>
       </c>
       <c r="S336" s="4" t="s">
         <v>929</v>
@@ -22018,10 +22028,10 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
       <c r="V336" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="W336" t="s">
         <v>1722</v>
-      </c>
-      <c r="W336" t="s">
-        <v>1723</v>
       </c>
       <c r="X336"/>
       <c r="Y336"/>
@@ -22029,7 +22039,7 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="str">
-        <f>CONCATENATE(B337, " ", D337)</f>
+        <f t="shared" si="7"/>
         <v>Julia Veghte</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -22078,11 +22088,11 @@
     </row>
     <row r="338" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="str">
-        <f>CONCATENATE(B338, " ", D338)</f>
+        <f t="shared" si="7"/>
         <v>Ann Elizabeth Velie</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>599</v>
@@ -22103,27 +22113,27 @@
         <v>272</v>
       </c>
       <c r="P338" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="Q338" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="R338" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="R338" s="2" t="s">
-        <v>1727</v>
-      </c>
       <c r="S338" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="V338" s="2" t="s">
         <v>151</v>
       </c>
       <c r="X338" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="str">
-        <f>CONCATENATE(B339, " ", D339)</f>
+        <f t="shared" si="7"/>
         <v>Ellen Velie</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -22155,13 +22165,13 @@
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
       <c r="P339" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="Q339" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="R339" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="S339" s="2" t="s">
         <v>887</v>
@@ -22169,18 +22179,18 @@
       <c r="T339" s="2"/>
       <c r="U339" s="2"/>
       <c r="V339" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W339" s="2"/>
       <c r="X339" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="str">
-        <f>CONCATENATE(B340, " ", D340)</f>
+        <f t="shared" si="7"/>
         <v>Suzanne Vine</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -22212,7 +22222,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
       <c r="P340" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
@@ -22227,7 +22237,7 @@
     </row>
     <row r="341" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="str">
-        <f>CONCATENATE(B341, " ", D341)</f>
+        <f t="shared" si="7"/>
         <v>Isabella Wager</v>
       </c>
       <c r="B341" t="s">
@@ -22260,13 +22270,13 @@
       <c r="O341"/>
       <c r="P341" s="4"/>
       <c r="Q341" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="R341" s="4" t="s">
         <v>1734</v>
       </c>
-      <c r="R341" s="4" t="s">
+      <c r="S341" s="4" t="s">
         <v>1735</v>
-      </c>
-      <c r="S341" s="4" t="s">
-        <v>1736</v>
       </c>
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
@@ -22274,7 +22284,7 @@
         <v>147</v>
       </c>
       <c r="W341" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="X341"/>
       <c r="Y341"/>
@@ -22282,7 +22292,7 @@
     </row>
     <row r="342" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="str">
-        <f>CONCATENATE(B342, " ", D342)</f>
+        <f t="shared" si="7"/>
         <v>Elisabeth Walcott</v>
       </c>
       <c r="B342" s="4" t="s">
@@ -22314,13 +22324,13 @@
       <c r="N342" s="4"/>
       <c r="O342" s="4"/>
       <c r="P342" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="Q342" s="4" t="s">
         <v>1738</v>
       </c>
-      <c r="Q342" s="4" t="s">
+      <c r="R342" s="4" t="s">
         <v>1739</v>
-      </c>
-      <c r="R342" s="4" t="s">
-        <v>1740</v>
       </c>
       <c r="S342" s="4" t="s">
         <v>887</v>
@@ -22331,7 +22341,7 @@
         <v>632</v>
       </c>
       <c r="W342" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="X342" s="4"/>
       <c r="Y342" s="4"/>
@@ -22339,7 +22349,7 @@
     </row>
     <row r="343" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="str">
-        <f>CONCATENATE(B343, " ", D343)</f>
+        <f t="shared" si="7"/>
         <v>Jane Waldfogel</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -22364,13 +22374,13 @@
         <v>896</v>
       </c>
       <c r="P343" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q343" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="Q343" s="2" t="s">
+      <c r="R343" s="2" t="s">
         <v>1743</v>
-      </c>
-      <c r="R343" s="2" t="s">
-        <v>1744</v>
       </c>
       <c r="S343" s="2" t="s">
         <v>887</v>
@@ -22379,12 +22389,12 @@
         <v>147</v>
       </c>
       <c r="X343" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="str">
-        <f>CONCATENATE(B344, " ", D344)</f>
+        <f t="shared" si="7"/>
         <v>Tory Waldstein</v>
       </c>
       <c r="B344" s="4" t="s">
@@ -22416,10 +22426,10 @@
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
       <c r="Q344" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="R344" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="S344" s="4" t="s">
         <v>900</v>
@@ -22430,7 +22440,7 @@
         <v>147</v>
       </c>
       <c r="W344" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="X344" s="4"/>
       <c r="Y344" s="4"/>
@@ -22438,17 +22448,17 @@
     </row>
     <row r="345" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="str">
-        <f>CONCATENATE(B345, " ", D345)</f>
+        <f t="shared" si="7"/>
         <v>Jennifer Walsh</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>1764</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>1765</v>
       </c>
       <c r="E345" s="2">
         <v>1983</v>
@@ -22483,7 +22493,7 @@
     </row>
     <row r="346" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="str">
-        <f>CONCATENATE(B346, " ", D346)</f>
+        <f t="shared" si="7"/>
         <v>Kelly Ann Wannop</v>
       </c>
       <c r="B346" t="s">
@@ -22538,7 +22548,7 @@
     </row>
     <row r="347" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="str">
-        <f>CONCATENATE(B347, " ", D347)</f>
+        <f t="shared" si="7"/>
         <v>Ali Watters</v>
       </c>
       <c r="B347" t="s">
@@ -22590,7 +22600,7 @@
     </row>
     <row r="348" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="str">
-        <f>CONCATENATE(B348, " ", D348)</f>
+        <f t="shared" si="7"/>
         <v>Ashley Wayman</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -22617,11 +22627,11 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="12" t="str">
-        <f>CONCATENATE(B349, " ", D349)</f>
+        <f t="shared" si="7"/>
         <v>Kristen Weeks</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C349" s="12" t="s">
         <v>388</v>
@@ -22650,21 +22660,21 @@
         <v>634</v>
       </c>
       <c r="Q349" s="12" t="s">
+        <v>1833</v>
+      </c>
+      <c r="R349" s="12" t="s">
         <v>1834</v>
       </c>
-      <c r="R349" s="12" t="s">
+      <c r="S349" s="12" t="s">
         <v>1835</v>
-      </c>
-      <c r="S349" s="12" t="s">
-        <v>1836</v>
       </c>
       <c r="T349" s="12"/>
       <c r="U349" s="12"/>
       <c r="V349" s="12" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="W349" s="12" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="X349" s="12"/>
       <c r="Y349" s="12"/>
@@ -22672,7 +22682,7 @@
     </row>
     <row r="350" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="str">
-        <f>CONCATENATE(B350, " ", D350)</f>
+        <f t="shared" si="7"/>
         <v>Kelly Weis</v>
       </c>
       <c r="B350" t="s">
@@ -22704,19 +22714,19 @@
       <c r="N350"/>
       <c r="O350"/>
       <c r="Q350" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R350" s="4" t="s">
         <v>1760</v>
-      </c>
-      <c r="R350" s="4" t="s">
-        <v>1761</v>
       </c>
       <c r="S350" s="4" t="s">
         <v>25</v>
       </c>
       <c r="V350" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="W350" t="s">
         <v>1762</v>
-      </c>
-      <c r="W350" t="s">
-        <v>1763</v>
       </c>
       <c r="X350"/>
       <c r="Y350"/>
@@ -22724,7 +22734,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="str">
-        <f>CONCATENATE(B351, " ", D351)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Robyn White </v>
       </c>
       <c r="B351" t="s">
@@ -22749,24 +22759,24 @@
         <v>266</v>
       </c>
       <c r="P351" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Q351" s="4" t="s">
         <v>862</v>
       </c>
       <c r="R351" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="V351" t="s">
+        <v>1465</v>
+      </c>
+      <c r="W351" t="s">
         <v>1466</v>
-      </c>
-      <c r="W351" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="str">
-        <f>CONCATENATE(B352, " ", D352)</f>
+        <f t="shared" si="7"/>
         <v>Casey Whitman</v>
       </c>
       <c r="B352" t="s">
@@ -22776,7 +22786,7 @@
         <v>483</v>
       </c>
       <c r="D352" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E352">
         <v>2006</v>
@@ -22791,7 +22801,7 @@
         <v>268</v>
       </c>
       <c r="Q352" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="R352" s="4" t="s">
         <v>678</v>
@@ -22805,16 +22815,16 @@
         <v>147</v>
       </c>
       <c r="W352" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="353" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="str">
-        <f>CONCATENATE(B353, " ", D353)</f>
+        <f t="shared" si="7"/>
         <v>Marjorie Williams</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C353" s="10" t="s">
         <v>1109</v>
@@ -22831,7 +22841,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="str">
-        <f>CONCATENATE(B354, " ", D354)</f>
+        <f t="shared" si="7"/>
         <v>Jennifer Wilson</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -22841,7 +22851,7 @@
         <v>607</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E354" s="2">
         <v>1990</v>
@@ -22876,7 +22886,7 @@
     </row>
     <row r="355" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="str">
-        <f>CONCATENATE(B355, " ", D355)</f>
+        <f t="shared" si="7"/>
         <v>Sarah Winters</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -22908,13 +22918,13 @@
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
       <c r="P355" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Q355" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="Q355" s="2" t="s">
+      <c r="R355" s="2" t="s">
         <v>1773</v>
-      </c>
-      <c r="R355" s="2" t="s">
-        <v>1774</v>
       </c>
       <c r="S355" s="2" t="s">
         <v>1262</v>
@@ -22926,14 +22936,14 @@
       </c>
       <c r="W355" s="2"/>
       <c r="X355" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
     <row r="356" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="str">
-        <f>CONCATENATE(B356, " ", D356)</f>
+        <f t="shared" si="7"/>
         <v>Sarah Woolworth</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -22943,7 +22953,7 @@
         <v>464</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E356" s="2">
         <v>1980</v>
@@ -22960,7 +22970,7 @@
     </row>
     <row r="357" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="str">
-        <f>CONCATENATE(B357, " ", D357)</f>
+        <f t="shared" ref="A357:A388" si="8">CONCATENATE(B357, " ", D357)</f>
         <v>Charlotte Worsley</v>
       </c>
       <c r="B357" t="s">
@@ -22992,13 +23002,13 @@
       <c r="N357"/>
       <c r="O357"/>
       <c r="P357" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Q357" s="4" t="s">
         <v>1780</v>
       </c>
-      <c r="Q357" s="4" t="s">
+      <c r="R357" s="4" t="s">
         <v>1781</v>
-      </c>
-      <c r="R357" s="4" t="s">
-        <v>1782</v>
       </c>
       <c r="S357" s="4" t="s">
         <v>162</v>
@@ -23009,7 +23019,7 @@
         <v>188</v>
       </c>
       <c r="W357" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="X357"/>
       <c r="Y357"/>
@@ -23017,7 +23027,7 @@
     </row>
     <row r="358" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="str">
-        <f>CONCATENATE(B358, " ", D358)</f>
+        <f t="shared" si="8"/>
         <v>Alyce Wright</v>
       </c>
       <c r="B358" s="4" t="s">
@@ -23042,24 +23052,24 @@
         <v>268</v>
       </c>
       <c r="Q358" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="R358" s="4" t="s">
         <v>1776</v>
       </c>
-      <c r="R358" s="4" t="s">
+      <c r="S358" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="V358" s="4" t="s">
         <v>1777</v>
       </c>
-      <c r="S358" s="4" t="s">
-        <v>1512</v>
-      </c>
-      <c r="V358" s="4" t="s">
+      <c r="W358" s="4" t="s">
         <v>1778</v>
-      </c>
-      <c r="W358" s="4" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="str">
-        <f>CONCATENATE(B359, " ", D359)</f>
+        <f t="shared" si="8"/>
         <v>Margaret Yellott</v>
       </c>
       <c r="B359" t="s">
@@ -23084,24 +23094,24 @@
         <v>269</v>
       </c>
       <c r="Q359" t="s">
+        <v>1783</v>
+      </c>
+      <c r="R359" t="s">
         <v>1784</v>
       </c>
-      <c r="R359" t="s">
-        <v>1785</v>
-      </c>
       <c r="S359" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="V359" t="s">
         <v>151</v>
       </c>
       <c r="W359" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="str">
-        <f>CONCATENATE(B360, " ", D360)</f>
+        <f t="shared" si="8"/>
         <v>Virginia Yinger</v>
       </c>
       <c r="B360" t="s">
@@ -23146,7 +23156,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="str">
-        <f>CONCATENATE(B361, " ", D361)</f>
+        <f t="shared" si="8"/>
         <v>Gwill York</v>
       </c>
       <c r="B361" t="s">
@@ -23168,13 +23178,13 @@
         <v>268</v>
       </c>
       <c r="P361" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q361" t="s">
         <v>1787</v>
       </c>
-      <c r="Q361" t="s">
+      <c r="R361" t="s">
         <v>1788</v>
-      </c>
-      <c r="R361" t="s">
-        <v>1789</v>
       </c>
       <c r="S361" t="s">
         <v>25</v>
@@ -23183,12 +23193,12 @@
         <v>155</v>
       </c>
       <c r="W361" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="str">
-        <f>CONCATENATE(B362, " ", D362)</f>
+        <f t="shared" si="8"/>
         <v>Caroline Young</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -23198,7 +23208,7 @@
         <v>134</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E362" s="2">
         <v>1981</v>
@@ -23235,7 +23245,7 @@
     </row>
     <row r="363" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="str">
-        <f>CONCATENATE(B363, " ", D363)</f>
+        <f t="shared" si="8"/>
         <v>Michelle Zavez</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -23280,7 +23290,7 @@
     </row>
     <row r="364" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="str">
-        <f>CONCATENATE(B364, " ", D364)</f>
+        <f t="shared" si="8"/>
         <v>Nancy Zweng</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -23312,7 +23322,7 @@
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
       <c r="P364" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
@@ -23325,6 +23335,39 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
+    <row r="365" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="4" t="str">
+        <f>CONCATENATE(B365, " ", D365)</f>
+        <v>Maggie McCarthy</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E365" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L365" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="M365" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="R365" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="V365" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="W365" s="13" t="s">
+        <v>1841</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z364">
     <sortCondition ref="D2:D364"/>
